--- a/mapping/mapping_TB2021July_v1.xlsx
+++ b/mapping/mapping_TB2021July_v1.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khwang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khwang/scratch/TB2023July/preparation/dev_230622/TB2023/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D2DC77-3419-EE46-A1C4-520BE4114C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAD8497-DDB7-BC4D-99AB-27EF9D5D48D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="1" xr2:uid="{9904E546-8807-0449-B43D-5949530D5B54}"/>
+    <workbookView xWindow="13100" yWindow="500" windowWidth="55700" windowHeight="28300" activeTab="1" xr2:uid="{9904E546-8807-0449-B43D-5949530D5B54}"/>
   </bookViews>
   <sheets>
     <sheet name="dynamic" sheetId="1" r:id="rId1"/>
     <sheet name="static" sheetId="3" r:id="rId2"/>
     <sheet name="MCP&amp;SIPM" sheetId="4" r:id="rId3"/>
     <sheet name="case" sheetId="2" r:id="rId4"/>
+    <sheet name="generic" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="167">
   <si>
     <t>MID</t>
   </si>
@@ -401,13 +402,7 @@
     <t>8-2</t>
   </si>
   <si>
-    <t>8-28</t>
-  </si>
-  <si>
     <t>8-20</t>
-  </si>
-  <si>
-    <t>8-30</t>
   </si>
   <si>
     <t>8-22</t>
@@ -423,12 +418,6 @@
   </si>
   <si>
     <t>8-18</t>
-  </si>
-  <si>
-    <t>8-32</t>
-  </si>
-  <si>
-    <t>8-24</t>
   </si>
   <si>
     <t>9-10</t>
@@ -465,6 +454,93 @@
   </si>
   <si>
     <t>8-8</t>
+  </si>
+  <si>
+    <t>9-16</t>
+  </si>
+  <si>
+    <t>9-20</t>
+  </si>
+  <si>
+    <t>9-22</t>
+  </si>
+  <si>
+    <t>9-8</t>
+  </si>
+  <si>
+    <t>HW_S</t>
+  </si>
+  <si>
+    <t>W2_S</t>
+  </si>
+  <si>
+    <t>W1_S</t>
+  </si>
+  <si>
+    <t>W3_S</t>
+  </si>
+  <si>
+    <t>L1_S</t>
+  </si>
+  <si>
+    <t>H1_S</t>
+  </si>
+  <si>
+    <t>H2_S</t>
+  </si>
+  <si>
+    <t>L2_S</t>
+  </si>
+  <si>
+    <t>L3_S</t>
+  </si>
+  <si>
+    <t>H3_S</t>
+  </si>
+  <si>
+    <t>L4_S</t>
+  </si>
+  <si>
+    <t>MCP_S</t>
+  </si>
+  <si>
+    <t>HW_C</t>
+  </si>
+  <si>
+    <t>W2_C</t>
+  </si>
+  <si>
+    <t>W1_C</t>
+  </si>
+  <si>
+    <t>W3_C</t>
+  </si>
+  <si>
+    <t>L1_C</t>
+  </si>
+  <si>
+    <t>H1_C</t>
+  </si>
+  <si>
+    <t>H2_C</t>
+  </si>
+  <si>
+    <t>L2_C</t>
+  </si>
+  <si>
+    <t>L3_C</t>
+  </si>
+  <si>
+    <t>H3_C</t>
+  </si>
+  <si>
+    <t>L4_C</t>
+  </si>
+  <si>
+    <t>MCP_C</t>
+  </si>
+  <si>
+    <t>mid</t>
   </si>
 </sst>
 </file>
@@ -594,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -613,10 +689,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -932,11 +1005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FA2B49-E75F-9B4E-BCDE-F5B7F2A15CFB}">
-  <dimension ref="A1:G289"/>
+  <dimension ref="A1:W289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="A1:G289"/>
+      <selection pane="bottomLeft" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2168,14 +2241,14 @@
       </c>
       <c r="D49">
         <f>VLOOKUP(B49, 'MCP&amp;SIPM'!$B$27:$D$52, 3, FALSE)</f>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
         <f>VLOOKUP($D49, case!$C$25:$E$74, 2, FALSE)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <f>VLOOKUP($D49, case!$C$25:$E$74, 3, FALSE)</f>
@@ -5430,7 +5503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>6</v>
       </c>
@@ -5456,7 +5529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>6</v>
       </c>
@@ -5482,7 +5555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>6</v>
       </c>
@@ -5508,7 +5581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>6</v>
       </c>
@@ -5534,7 +5607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>6</v>
       </c>
@@ -5560,7 +5633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>6</v>
       </c>
@@ -5586,7 +5659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>6</v>
       </c>
@@ -5612,7 +5685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>6</v>
       </c>
@@ -5638,7 +5711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>6</v>
       </c>
@@ -5664,7 +5737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>6</v>
       </c>
@@ -5690,7 +5763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>6</v>
       </c>
@@ -5716,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>6</v>
       </c>
@@ -5742,7 +5815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>6</v>
       </c>
@@ -5768,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>6</v>
       </c>
@@ -5793,8 +5866,14 @@
         <f>VLOOKUP($D190,case!$D$180:$F$211, 3, FALSE)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="R190" t="s">
+        <v>8</v>
+      </c>
+      <c r="S190">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>6</v>
       </c>
@@ -5819,8 +5898,14 @@
         <f>VLOOKUP($D191,case!$D$180:$F$211, 3, FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="R191" t="s">
+        <v>9</v>
+      </c>
+      <c r="S191">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>6</v>
       </c>
@@ -5845,8 +5930,14 @@
         <f>VLOOKUP($D192,case!$D$180:$F$211, 3, FALSE)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="R192" t="s">
+        <v>11</v>
+      </c>
+      <c r="S192">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>6</v>
       </c>
@@ -5871,21 +5962,30 @@
         <f>VLOOKUP($D193,case!$D$180:$F$211, 3, FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="R193" t="s">
+        <v>10</v>
+      </c>
+      <c r="S193">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>8</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-      <c r="D194">
-        <v>0</v>
-      </c>
-      <c r="E194">
+      <c r="C194" s="10">
+        <f>M194</f>
+        <v>0</v>
+      </c>
+      <c r="D194" s="10">
+        <f t="shared" ref="D194:E194" si="0">N194</f>
+        <v>0</v>
+      </c>
+      <c r="E194" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F194">
@@ -5894,21 +5994,45 @@
       <c r="G194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="10"/>
+      <c r="M194">
+        <f>IF(L194 = $O$193, 0,  VLOOKUP(L194,$R$190:$S$194, 2, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <f>IF(J194 = $O$193, 0,  VLOOKUP(J194,$S$199:$U$212, 3, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <f>IF(K194=$P$192, 0, IF(K194="S", 0, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="R194" t="s">
+        <v>28</v>
+      </c>
+      <c r="S194">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>8</v>
       </c>
       <c r="B195">
         <v>2</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="10">
+        <f t="shared" ref="C195:C257" si="1">M195</f>
         <v>10</v>
       </c>
-      <c r="D195">
-        <v>0</v>
-      </c>
-      <c r="E195">
+      <c r="D195" s="10">
+        <f t="shared" ref="D195:D257" si="2">N195</f>
+        <v>0</v>
+      </c>
+      <c r="E195" s="10">
+        <f t="shared" ref="E195:E257" si="3">O195</f>
         <v>0</v>
       </c>
       <c r="F195">
@@ -5917,21 +6041,52 @@
       <c r="G195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H195" s="10"/>
+      <c r="I195" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J195" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K195" t="s">
+        <v>42</v>
+      </c>
+      <c r="L195" t="s">
+        <v>8</v>
+      </c>
+      <c r="M195">
+        <f>IF(L195 = $O$193, 0,  VLOOKUP(L195,$R$190:$S$194, 2, FALSE))</f>
+        <v>10</v>
+      </c>
+      <c r="N195">
+        <f>IF(J195 = $O$193, 0,  VLOOKUP(J195,$S$199:$U$212, 3, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <f t="shared" ref="O195:O251" si="4">IF(K195=$P$192, 0, IF(K195="S", 0, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="S195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>8</v>
       </c>
       <c r="B196">
         <v>3</v>
       </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-      <c r="D196">
-        <v>0</v>
-      </c>
-      <c r="E196">
+      <c r="C196" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D196" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E196" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F196">
@@ -5940,21 +6095,39 @@
       <c r="G196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="10"/>
+      <c r="M196">
+        <f t="shared" ref="M196:M257" si="5">IF(L196 = $O$193, 0,  VLOOKUP(L196,$R$190:$S$194, 2, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <f t="shared" ref="N196:N251" si="6">IF(J196 = $O$193, 0,  VLOOKUP(J196,$S$199:$U$212, 3, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>8</v>
       </c>
       <c r="B197">
         <v>4</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="10">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D197">
-        <v>2</v>
-      </c>
-      <c r="E197">
+      <c r="D197" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E197" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F197">
@@ -5963,21 +6136,49 @@
       <c r="G197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H197" s="10"/>
+      <c r="I197" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J197" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K197" t="s">
+        <v>42</v>
+      </c>
+      <c r="L197" t="s">
+        <v>11</v>
+      </c>
+      <c r="M197">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N197">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O197">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>8</v>
       </c>
       <c r="B198">
         <v>5</v>
       </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
-      <c r="D198">
-        <v>0</v>
-      </c>
-      <c r="E198">
+      <c r="C198" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D198" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E198" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F198">
@@ -5986,21 +6187,48 @@
       <c r="G198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H198" s="10"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="10"/>
+      <c r="M198">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S198" t="s">
+        <v>16</v>
+      </c>
+      <c r="V198" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="W198" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>8</v>
       </c>
       <c r="B199">
         <v>6</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="10">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D199">
-        <v>1</v>
-      </c>
-      <c r="E199">
+      <c r="D199" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E199" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F199">
@@ -6009,21 +6237,67 @@
       <c r="G199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H199" s="10"/>
+      <c r="I199" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="J199" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K199" t="s">
+        <v>42</v>
+      </c>
+      <c r="L199" t="s">
+        <v>11</v>
+      </c>
+      <c r="M199">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N199">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O199">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R199" t="s">
+        <v>8</v>
+      </c>
+      <c r="S199" t="s">
+        <v>29</v>
+      </c>
+      <c r="T199" t="s">
+        <v>19</v>
+      </c>
+      <c r="U199">
+        <v>0</v>
+      </c>
+      <c r="V199" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="W199" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>8</v>
       </c>
       <c r="B200">
         <v>7</v>
       </c>
-      <c r="C200">
-        <v>0</v>
-      </c>
-      <c r="D200">
-        <v>0</v>
-      </c>
-      <c r="E200">
+      <c r="C200" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D200" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E200" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F200">
@@ -6032,21 +6306,54 @@
       <c r="G200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H200" s="10"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="10"/>
+      <c r="M200">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S200" t="s">
+        <v>30</v>
+      </c>
+      <c r="T200" t="s">
+        <v>18</v>
+      </c>
+      <c r="U200">
+        <v>1</v>
+      </c>
+      <c r="V200" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="W200" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>8</v>
       </c>
       <c r="B201">
         <v>8</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="10">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D201">
-        <v>3</v>
-      </c>
-      <c r="E201">
+      <c r="D201" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E201" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F201">
@@ -6055,21 +6362,64 @@
       <c r="G201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H201" s="10"/>
+      <c r="I201" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J201" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K201" t="s">
+        <v>42</v>
+      </c>
+      <c r="L201" t="s">
+        <v>11</v>
+      </c>
+      <c r="M201">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N201">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O201">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S201" t="s">
+        <v>31</v>
+      </c>
+      <c r="T201" t="s">
+        <v>17</v>
+      </c>
+      <c r="U201">
+        <v>2</v>
+      </c>
+      <c r="V201" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="W201" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>8</v>
       </c>
       <c r="B202">
         <v>9</v>
       </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-      <c r="D202">
-        <v>0</v>
-      </c>
-      <c r="E202">
+      <c r="C202" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D202" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E202" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F202">
@@ -6078,22 +6428,55 @@
       <c r="G202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H202" s="10"/>
+      <c r="I202" s="10"/>
+      <c r="J202" s="10"/>
+      <c r="M202">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S202" t="s">
+        <v>32</v>
+      </c>
+      <c r="T202" t="s">
+        <v>20</v>
+      </c>
+      <c r="U202">
+        <v>3</v>
+      </c>
+      <c r="V202" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="W202" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>8</v>
       </c>
       <c r="B203">
         <v>10</v>
       </c>
-      <c r="C203">
-        <v>10</v>
-      </c>
-      <c r="D203">
-        <v>0</v>
-      </c>
-      <c r="E203">
-        <v>1</v>
+      <c r="C203" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D203" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E203" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -6101,21 +6484,51 @@
       <c r="G203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H203" s="10"/>
+      <c r="I203" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J203" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K203" t="s">
+        <v>42</v>
+      </c>
+      <c r="L203" t="s">
+        <v>9</v>
+      </c>
+      <c r="M203">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N203">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O203">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V203" s="19"/>
+      <c r="W203" s="19"/>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>8</v>
       </c>
       <c r="B204">
         <v>11</v>
       </c>
-      <c r="C204">
-        <v>0</v>
-      </c>
-      <c r="D204">
-        <v>0</v>
-      </c>
-      <c r="E204">
+      <c r="C204" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D204" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E204" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F204">
@@ -6124,22 +6537,58 @@
       <c r="G204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H204" s="10"/>
+      <c r="I204" s="10"/>
+      <c r="J204" s="10"/>
+      <c r="M204">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R204" t="s">
+        <v>9</v>
+      </c>
+      <c r="S204" t="s">
+        <v>33</v>
+      </c>
+      <c r="T204" t="s">
+        <v>22</v>
+      </c>
+      <c r="U204">
+        <v>1</v>
+      </c>
+      <c r="V204" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="W204" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>8</v>
       </c>
       <c r="B205">
         <v>12</v>
       </c>
-      <c r="C205">
-        <v>12</v>
-      </c>
-      <c r="D205">
-        <v>2</v>
-      </c>
-      <c r="E205">
-        <v>1</v>
+      <c r="C205" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D205" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E205" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -6147,21 +6596,64 @@
       <c r="G205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H205" s="10"/>
+      <c r="I205" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J205" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K205" t="s">
+        <v>42</v>
+      </c>
+      <c r="L205" t="s">
+        <v>8</v>
+      </c>
+      <c r="M205">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O205">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S205" t="s">
+        <v>34</v>
+      </c>
+      <c r="T205" t="s">
+        <v>21</v>
+      </c>
+      <c r="U205">
+        <v>2</v>
+      </c>
+      <c r="V205" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="W205" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>8</v>
       </c>
       <c r="B206">
         <v>13</v>
       </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
-      <c r="D206">
-        <v>0</v>
-      </c>
-      <c r="E206">
+      <c r="C206" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D206" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E206" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F206">
@@ -6170,22 +6662,55 @@
       <c r="G206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H206" s="10"/>
+      <c r="I206" s="10"/>
+      <c r="J206" s="10"/>
+      <c r="M206">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S206" t="s">
+        <v>35</v>
+      </c>
+      <c r="T206" t="s">
+        <v>23</v>
+      </c>
+      <c r="U206">
+        <v>3</v>
+      </c>
+      <c r="V206" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="W206" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>8</v>
       </c>
       <c r="B207">
         <v>14</v>
       </c>
-      <c r="C207">
-        <v>12</v>
-      </c>
-      <c r="D207">
-        <v>1</v>
-      </c>
-      <c r="E207">
-        <v>1</v>
+      <c r="C207" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D207" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E207" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -6193,21 +6718,64 @@
       <c r="G207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H207" s="10"/>
+      <c r="I207" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J207" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K207" t="s">
+        <v>42</v>
+      </c>
+      <c r="L207" t="s">
+        <v>8</v>
+      </c>
+      <c r="M207">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N207">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O207">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S207" t="s">
+        <v>36</v>
+      </c>
+      <c r="T207" t="s">
+        <v>24</v>
+      </c>
+      <c r="U207">
+        <v>4</v>
+      </c>
+      <c r="V207" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="W207" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>8</v>
       </c>
       <c r="B208">
         <v>15</v>
       </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
-      <c r="D208">
-        <v>0</v>
-      </c>
-      <c r="E208">
+      <c r="C208" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D208" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E208" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F208">
@@ -6216,22 +6784,42 @@
       <c r="G208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H208" s="10"/>
+      <c r="I208" s="10"/>
+      <c r="J208" s="10"/>
+      <c r="M208">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V208" s="19"/>
+      <c r="W208" s="19"/>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>8</v>
       </c>
       <c r="B209">
         <v>16</v>
       </c>
-      <c r="C209">
-        <v>12</v>
-      </c>
-      <c r="D209">
-        <v>3</v>
-      </c>
-      <c r="E209">
-        <v>1</v>
+      <c r="C209" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D209" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E209" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -6239,21 +6827,67 @@
       <c r="G209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H209" s="10"/>
+      <c r="I209" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J209" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K209" t="s">
+        <v>42</v>
+      </c>
+      <c r="L209" t="s">
+        <v>9</v>
+      </c>
+      <c r="M209">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N209">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O209">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R209" t="s">
+        <v>11</v>
+      </c>
+      <c r="S209" t="s">
+        <v>37</v>
+      </c>
+      <c r="T209" t="s">
+        <v>25</v>
+      </c>
+      <c r="U209">
+        <v>0</v>
+      </c>
+      <c r="V209" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="W209" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>8</v>
       </c>
       <c r="B210">
         <v>17</v>
       </c>
-      <c r="C210">
-        <v>0</v>
-      </c>
-      <c r="D210">
-        <v>0</v>
-      </c>
-      <c r="E210">
+      <c r="C210" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D210" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E210" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F210">
@@ -6262,21 +6896,54 @@
       <c r="G210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H210" s="10"/>
+      <c r="I210" s="10"/>
+      <c r="J210" s="10"/>
+      <c r="M210">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S210" t="s">
+        <v>38</v>
+      </c>
+      <c r="T210" t="s">
+        <v>19</v>
+      </c>
+      <c r="U210">
+        <v>1</v>
+      </c>
+      <c r="V210" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="W210" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>8</v>
       </c>
       <c r="B211">
         <v>18</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="10">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D211">
-        <v>1</v>
-      </c>
-      <c r="E211">
+      <c r="D211" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E211" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F211">
@@ -6285,21 +6952,64 @@
       <c r="G211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H211" s="10"/>
+      <c r="I211" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J211" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K211" t="s">
+        <v>42</v>
+      </c>
+      <c r="L211" t="s">
+        <v>9</v>
+      </c>
+      <c r="M211">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N211">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O211">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S211" t="s">
+        <v>39</v>
+      </c>
+      <c r="T211" t="s">
+        <v>18</v>
+      </c>
+      <c r="U211">
+        <v>2</v>
+      </c>
+      <c r="V211" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="W211" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>8</v>
       </c>
       <c r="B212">
         <v>19</v>
       </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
-      <c r="D212">
-        <v>0</v>
-      </c>
-      <c r="E212">
+      <c r="C212" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D212" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E212" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F212">
@@ -6308,21 +7018,54 @@
       <c r="G212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H212" s="10"/>
+      <c r="I212" s="10"/>
+      <c r="J212" s="10"/>
+      <c r="M212">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O212">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S212" t="s">
+        <v>40</v>
+      </c>
+      <c r="T212" t="s">
+        <v>17</v>
+      </c>
+      <c r="U212">
+        <v>3</v>
+      </c>
+      <c r="V212" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="W212" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>8</v>
       </c>
       <c r="B213">
         <v>20</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="10">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D213">
-        <v>1</v>
-      </c>
-      <c r="E213">
+      <c r="D213" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E213" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F213">
@@ -6331,21 +7074,51 @@
       <c r="G213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H213" s="10"/>
+      <c r="I213" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J213" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K213" t="s">
+        <v>42</v>
+      </c>
+      <c r="L213" t="s">
+        <v>8</v>
+      </c>
+      <c r="M213">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N213">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O213">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S213" s="19"/>
+      <c r="T213" s="19"/>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>8</v>
       </c>
       <c r="B214">
         <v>21</v>
       </c>
-      <c r="C214">
-        <v>0</v>
-      </c>
-      <c r="D214">
-        <v>0</v>
-      </c>
-      <c r="E214">
+      <c r="C214" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D214" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E214" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F214">
@@ -6354,21 +7127,41 @@
       <c r="G214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H214" s="10"/>
+      <c r="I214" s="10"/>
+      <c r="J214" s="10"/>
+      <c r="M214">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S214" s="19"/>
+      <c r="T214" s="19"/>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>8</v>
       </c>
       <c r="B215">
         <v>22</v>
       </c>
-      <c r="C215">
-        <v>10</v>
-      </c>
-      <c r="D215">
-        <v>2</v>
-      </c>
-      <c r="E215">
+      <c r="C215" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D215" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E215" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F215">
@@ -6377,21 +7170,51 @@
       <c r="G215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H215" s="10"/>
+      <c r="I215" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J215" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K215" t="s">
+        <v>42</v>
+      </c>
+      <c r="L215" t="s">
+        <v>9</v>
+      </c>
+      <c r="M215">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N215">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="O215">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S215" s="19"/>
+      <c r="T215" s="19"/>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>8</v>
       </c>
       <c r="B216">
         <v>23</v>
       </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
-      <c r="D216">
-        <v>0</v>
-      </c>
-      <c r="E216">
+      <c r="C216" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D216" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E216" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F216">
@@ -6400,21 +7223,41 @@
       <c r="G216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H216" s="10"/>
+      <c r="I216" s="10"/>
+      <c r="J216" s="10"/>
+      <c r="M216">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O216">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S216" s="19"/>
+      <c r="T216" s="19"/>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>8</v>
       </c>
       <c r="B217">
         <v>24</v>
       </c>
-      <c r="C217">
-        <v>11</v>
-      </c>
-      <c r="D217">
-        <v>2</v>
-      </c>
-      <c r="E217">
+      <c r="C217" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D217" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E217" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F217">
@@ -6423,21 +7266,41 @@
       <c r="G217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H217" s="10"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="10"/>
+      <c r="M217">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S217" s="19"/>
+      <c r="T217" s="19"/>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>8</v>
       </c>
       <c r="B218">
         <v>25</v>
       </c>
-      <c r="C218">
-        <v>0</v>
-      </c>
-      <c r="D218">
-        <v>0</v>
-      </c>
-      <c r="E218">
+      <c r="C218" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D218" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E218" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F218">
@@ -6446,44 +7309,90 @@
       <c r="G218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H218" s="10"/>
+      <c r="I218" s="10"/>
+      <c r="J218" s="10"/>
+      <c r="M218">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>8</v>
       </c>
       <c r="B219">
         <v>26</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D219" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E219" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219" s="10"/>
+      <c r="I219" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="J219" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K219" t="s">
+        <v>42</v>
+      </c>
+      <c r="L219" t="s">
         <v>11</v>
       </c>
-      <c r="D219">
-        <v>1</v>
-      </c>
-      <c r="E219">
-        <v>1</v>
-      </c>
-      <c r="F219">
-        <v>0</v>
-      </c>
-      <c r="G219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M219">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N219">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>8</v>
       </c>
       <c r="B220">
         <v>27</v>
       </c>
-      <c r="C220">
-        <v>0</v>
-      </c>
-      <c r="D220">
-        <v>0</v>
-      </c>
-      <c r="E220">
+      <c r="C220" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D220" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E220" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F220">
@@ -6492,22 +7401,40 @@
       <c r="G220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H220" s="10"/>
+      <c r="I220" s="10"/>
+      <c r="J220" s="10"/>
+      <c r="M220">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>8</v>
       </c>
       <c r="B221">
         <v>28</v>
       </c>
-      <c r="C221">
-        <v>10</v>
-      </c>
-      <c r="D221">
-        <v>1</v>
-      </c>
-      <c r="E221">
-        <v>1</v>
+      <c r="C221" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D221" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E221" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -6515,21 +7442,39 @@
       <c r="G221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H221" s="10"/>
+      <c r="I221" s="10"/>
+      <c r="J221" s="10"/>
+      <c r="M221">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>8</v>
       </c>
       <c r="B222">
         <v>29</v>
       </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-      <c r="D222">
-        <v>0</v>
-      </c>
-      <c r="E222">
+      <c r="C222" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D222" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E222" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F222">
@@ -6538,22 +7483,40 @@
       <c r="G222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H222" s="10"/>
+      <c r="I222" s="10"/>
+      <c r="J222" s="10"/>
+      <c r="M222">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>8</v>
       </c>
       <c r="B223">
         <v>30</v>
       </c>
-      <c r="C223">
-        <v>10</v>
-      </c>
-      <c r="D223">
-        <v>2</v>
-      </c>
-      <c r="E223">
-        <v>1</v>
+      <c r="C223" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D223" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E223" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -6561,21 +7524,39 @@
       <c r="G223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H223" s="10"/>
+      <c r="I223" s="10"/>
+      <c r="J223" s="10"/>
+      <c r="M223">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>8</v>
       </c>
       <c r="B224">
         <v>31</v>
       </c>
-      <c r="C224">
-        <v>0</v>
-      </c>
-      <c r="D224">
-        <v>0</v>
-      </c>
-      <c r="E224">
+      <c r="C224" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D224" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E224" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F224">
@@ -6584,22 +7565,40 @@
       <c r="G224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H224" s="10"/>
+      <c r="I224" s="10"/>
+      <c r="J224" s="10"/>
+      <c r="M224">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>8</v>
       </c>
       <c r="B225">
         <v>32</v>
       </c>
-      <c r="C225">
-        <v>11</v>
-      </c>
-      <c r="D225">
-        <v>2</v>
-      </c>
-      <c r="E225">
-        <v>1</v>
+      <c r="C225" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D225" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E225" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -6607,21 +7606,39 @@
       <c r="G225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H225" s="10"/>
+      <c r="I225" s="10"/>
+      <c r="J225" s="10"/>
+      <c r="M225">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>9</v>
       </c>
       <c r="B226">
         <v>1</v>
       </c>
-      <c r="C226">
-        <v>0</v>
-      </c>
-      <c r="D226">
-        <v>0</v>
-      </c>
-      <c r="E226">
+      <c r="C226" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D226" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E226" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F226">
@@ -6630,22 +7647,38 @@
       <c r="G226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I226" s="10"/>
+      <c r="M226">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>9</v>
       </c>
       <c r="B227">
         <v>2</v>
       </c>
-      <c r="C227">
-        <v>11</v>
-      </c>
-      <c r="D227">
-        <v>3</v>
-      </c>
-      <c r="E227">
-        <v>0</v>
+      <c r="C227" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D227" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E227" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -6653,21 +7686,49 @@
       <c r="G227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H227" s="10"/>
+      <c r="I227" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J227" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K227" t="s">
+        <v>43</v>
+      </c>
+      <c r="L227" t="s">
+        <v>8</v>
+      </c>
+      <c r="M227">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N227">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>9</v>
       </c>
       <c r="B228">
         <v>3</v>
       </c>
-      <c r="C228">
-        <v>0</v>
-      </c>
-      <c r="D228">
-        <v>0</v>
-      </c>
-      <c r="E228">
+      <c r="C228" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D228" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E228" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F228">
@@ -6676,22 +7737,40 @@
       <c r="G228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H228" s="10"/>
+      <c r="I228" s="10"/>
+      <c r="J228" s="10"/>
+      <c r="M228">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>9</v>
       </c>
       <c r="B229">
         <v>4</v>
       </c>
-      <c r="C229">
-        <v>10</v>
-      </c>
-      <c r="D229">
-        <v>3</v>
-      </c>
-      <c r="E229">
-        <v>0</v>
+      <c r="C229" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D229" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E229" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -6699,21 +7778,49 @@
       <c r="G229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H229" s="10"/>
+      <c r="I229" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J229" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K229" t="s">
+        <v>43</v>
+      </c>
+      <c r="L229" t="s">
+        <v>11</v>
+      </c>
+      <c r="M229">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N229">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O229">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>9</v>
       </c>
       <c r="B230">
         <v>5</v>
       </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
-      <c r="D230">
-        <v>0</v>
-      </c>
-      <c r="E230">
+      <c r="C230" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D230" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E230" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F230">
@@ -6722,44 +7829,90 @@
       <c r="G230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H230" s="10"/>
+      <c r="I230" s="10"/>
+      <c r="J230" s="10"/>
+      <c r="M230">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>9</v>
       </c>
       <c r="B231">
         <v>6</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D231" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E231" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231" s="10"/>
+      <c r="I231" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="J231" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K231" t="s">
+        <v>43</v>
+      </c>
+      <c r="L231" t="s">
         <v>11</v>
       </c>
-      <c r="D231">
-        <v>4</v>
-      </c>
-      <c r="E231">
-        <v>0</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
-      </c>
-      <c r="G231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M231">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N231">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O231">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>9</v>
       </c>
       <c r="B232">
         <v>7</v>
       </c>
-      <c r="C232">
-        <v>0</v>
-      </c>
-      <c r="D232">
-        <v>0</v>
-      </c>
-      <c r="E232">
+      <c r="C232" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D232" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E232" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F232">
@@ -6768,22 +7921,40 @@
       <c r="G232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H232" s="10"/>
+      <c r="I232" s="10"/>
+      <c r="J232" s="10"/>
+      <c r="M232">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>9</v>
       </c>
       <c r="B233">
         <v>8</v>
       </c>
-      <c r="C233">
-        <v>0</v>
-      </c>
-      <c r="D233">
-        <v>0</v>
-      </c>
-      <c r="E233">
-        <v>0</v>
+      <c r="C233" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D233" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E233" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -6791,21 +7962,49 @@
       <c r="G233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H233" s="10"/>
+      <c r="I233" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="J233" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K233" t="s">
+        <v>43</v>
+      </c>
+      <c r="L233" t="s">
+        <v>11</v>
+      </c>
+      <c r="M233">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N233">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O233">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>9</v>
       </c>
       <c r="B234">
         <v>9</v>
       </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
-      <c r="D234">
-        <v>0</v>
-      </c>
-      <c r="E234">
+      <c r="C234" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D234" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E234" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F234">
@@ -6814,21 +8013,37 @@
       <c r="G234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I234" s="10"/>
+      <c r="M234">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>9</v>
       </c>
       <c r="B235">
         <v>10</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="10">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D235">
-        <v>3</v>
-      </c>
-      <c r="E235">
+      <c r="D235" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E235" s="10">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F235">
@@ -6837,21 +8052,49 @@
       <c r="G235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H235" s="10"/>
+      <c r="I235" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J235" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K235" t="s">
+        <v>43</v>
+      </c>
+      <c r="L235" t="s">
+        <v>9</v>
+      </c>
+      <c r="M235">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N235">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O235">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>9</v>
       </c>
       <c r="B236">
         <v>11</v>
       </c>
-      <c r="C236">
-        <v>0</v>
-      </c>
-      <c r="D236">
-        <v>0</v>
-      </c>
-      <c r="E236">
+      <c r="C236" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D236" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E236" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F236">
@@ -6860,21 +8103,39 @@
       <c r="G236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H236" s="10"/>
+      <c r="I236" s="10"/>
+      <c r="J236" s="10"/>
+      <c r="M236">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>9</v>
       </c>
       <c r="B237">
         <v>12</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="10">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D237">
-        <v>3</v>
-      </c>
-      <c r="E237">
+      <c r="D237" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E237" s="10">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F237">
@@ -6883,21 +8144,49 @@
       <c r="G237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H237" s="10"/>
+      <c r="I237" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J237" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K237" t="s">
+        <v>43</v>
+      </c>
+      <c r="L237" t="s">
+        <v>8</v>
+      </c>
+      <c r="M237">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N237">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O237">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>9</v>
       </c>
       <c r="B238">
         <v>13</v>
       </c>
-      <c r="C238">
-        <v>0</v>
-      </c>
-      <c r="D238">
-        <v>0</v>
-      </c>
-      <c r="E238">
+      <c r="C238" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D238" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E238" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F238">
@@ -6906,21 +8195,39 @@
       <c r="G238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H238" s="10"/>
+      <c r="I238" s="10"/>
+      <c r="J238" s="10"/>
+      <c r="M238">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>9</v>
       </c>
       <c r="B239">
         <v>14</v>
       </c>
-      <c r="C239">
-        <v>11</v>
-      </c>
-      <c r="D239">
-        <v>4</v>
-      </c>
-      <c r="E239">
+      <c r="C239" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D239" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E239" s="10">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F239">
@@ -6929,21 +8236,49 @@
       <c r="G239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H239" s="10"/>
+      <c r="I239" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="J239" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K239" t="s">
+        <v>43</v>
+      </c>
+      <c r="L239" t="s">
+        <v>8</v>
+      </c>
+      <c r="M239">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N239">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O239">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>9</v>
       </c>
       <c r="B240">
         <v>15</v>
       </c>
-      <c r="C240">
-        <v>0</v>
-      </c>
-      <c r="D240">
-        <v>0</v>
-      </c>
-      <c r="E240">
+      <c r="C240" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D240" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E240" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F240">
@@ -6952,22 +8287,40 @@
       <c r="G240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H240" s="10"/>
+      <c r="I240" s="10"/>
+      <c r="J240" s="10"/>
+      <c r="M240">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O240">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>9</v>
       </c>
       <c r="B241">
         <v>16</v>
       </c>
-      <c r="C241">
-        <v>0</v>
-      </c>
-      <c r="D241">
-        <v>0</v>
-      </c>
-      <c r="E241">
-        <v>0</v>
+      <c r="C241" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D241" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E241" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -6975,21 +8328,49 @@
       <c r="G241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H241" s="10"/>
+      <c r="I241" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J241" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K241" t="s">
+        <v>43</v>
+      </c>
+      <c r="L241" t="s">
+        <v>9</v>
+      </c>
+      <c r="M241">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N241">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O241">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>9</v>
       </c>
       <c r="B242">
         <v>17</v>
       </c>
-      <c r="C242">
-        <v>0</v>
-      </c>
-      <c r="D242">
-        <v>0</v>
-      </c>
-      <c r="E242">
+      <c r="C242" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D242" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E242" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F242">
@@ -6998,22 +8379,38 @@
       <c r="G242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I242" s="10"/>
+      <c r="M242">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O242">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>9</v>
       </c>
       <c r="B243">
         <v>18</v>
       </c>
-      <c r="C243">
-        <v>12</v>
-      </c>
-      <c r="D243">
-        <v>0</v>
-      </c>
-      <c r="E243">
-        <v>0</v>
+      <c r="C243" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D243" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E243" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -7021,21 +8418,49 @@
       <c r="G243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H243" s="10"/>
+      <c r="I243" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J243" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K243" t="s">
+        <v>43</v>
+      </c>
+      <c r="L243" t="s">
+        <v>9</v>
+      </c>
+      <c r="M243">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N243">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O243">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>9</v>
       </c>
       <c r="B244">
         <v>19</v>
       </c>
-      <c r="C244">
-        <v>0</v>
-      </c>
-      <c r="D244">
-        <v>0</v>
-      </c>
-      <c r="E244">
+      <c r="C244" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D244" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E244" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F244">
@@ -7044,22 +8469,40 @@
       <c r="G244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H244" s="10"/>
+      <c r="I244" s="10"/>
+      <c r="J244" s="10"/>
+      <c r="M244">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>9</v>
       </c>
       <c r="B245">
         <v>20</v>
       </c>
-      <c r="C245">
-        <v>0</v>
-      </c>
-      <c r="D245">
-        <v>0</v>
-      </c>
-      <c r="E245">
-        <v>0</v>
+      <c r="C245" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D245" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E245" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -7067,21 +8510,49 @@
       <c r="G245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H245" s="10"/>
+      <c r="I245" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J245" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K245" t="s">
+        <v>43</v>
+      </c>
+      <c r="L245" t="s">
+        <v>8</v>
+      </c>
+      <c r="M245">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N245">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O245">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>9</v>
       </c>
       <c r="B246">
         <v>21</v>
       </c>
-      <c r="C246">
-        <v>0</v>
-      </c>
-      <c r="D246">
-        <v>0</v>
-      </c>
-      <c r="E246">
+      <c r="C246" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D246" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E246" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F246">
@@ -7090,22 +8561,40 @@
       <c r="G246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H246" s="10"/>
+      <c r="I246" s="10"/>
+      <c r="J246" s="10"/>
+      <c r="M246">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O246">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>9</v>
       </c>
       <c r="B247">
         <v>22</v>
       </c>
-      <c r="C247">
-        <v>0</v>
-      </c>
-      <c r="D247">
-        <v>0</v>
-      </c>
-      <c r="E247">
-        <v>0</v>
+      <c r="C247" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D247" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E247" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -7113,21 +8602,49 @@
       <c r="G247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H247" s="10"/>
+      <c r="I247" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J247" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K247" t="s">
+        <v>43</v>
+      </c>
+      <c r="L247" t="s">
+        <v>9</v>
+      </c>
+      <c r="M247">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="N247">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="O247">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>9</v>
       </c>
       <c r="B248">
         <v>23</v>
       </c>
-      <c r="C248">
-        <v>0</v>
-      </c>
-      <c r="D248">
-        <v>0</v>
-      </c>
-      <c r="E248">
+      <c r="C248" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D248" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E248" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F248">
@@ -7136,21 +8653,39 @@
       <c r="G248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H248" s="10"/>
+      <c r="I248" s="10"/>
+      <c r="J248" s="10"/>
+      <c r="M248">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O248">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>9</v>
       </c>
       <c r="B249">
         <v>24</v>
       </c>
-      <c r="C249">
-        <v>0</v>
-      </c>
-      <c r="D249">
-        <v>0</v>
-      </c>
-      <c r="E249">
+      <c r="C249" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D249" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E249" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F249">
@@ -7159,21 +8694,39 @@
       <c r="G249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H249" s="10"/>
+      <c r="I249" s="10"/>
+      <c r="J249" s="10"/>
+      <c r="M249">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O249">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>9</v>
       </c>
       <c r="B250">
         <v>25</v>
       </c>
-      <c r="C250">
-        <v>0</v>
-      </c>
-      <c r="D250">
-        <v>0</v>
-      </c>
-      <c r="E250">
+      <c r="C250" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D250" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E250" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F250">
@@ -7182,21 +8735,37 @@
       <c r="G250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I250" s="10"/>
+      <c r="M250">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O250">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>9</v>
       </c>
       <c r="B251">
         <v>26</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="10">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D251">
-        <v>0</v>
-      </c>
-      <c r="E251">
+      <c r="D251" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E251" s="10">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F251">
@@ -7205,21 +8774,49 @@
       <c r="G251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H251" s="10"/>
+      <c r="I251" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J251" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K251" t="s">
+        <v>43</v>
+      </c>
+      <c r="L251" t="s">
+        <v>11</v>
+      </c>
+      <c r="M251">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="N251">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O251">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>9</v>
       </c>
       <c r="B252">
         <v>27</v>
       </c>
-      <c r="C252">
-        <v>0</v>
-      </c>
-      <c r="D252">
-        <v>0</v>
-      </c>
-      <c r="E252">
+      <c r="C252" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D252" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E252" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F252">
@@ -7228,21 +8825,38 @@
       <c r="G252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H252" s="10"/>
+      <c r="J252" s="10"/>
+      <c r="M252">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <f t="shared" ref="N252:N257" si="7">IF(J252 = $O$193, 0,  VLOOKUP(J252,$S$199:$U$212, 3, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="O252">
+        <f t="shared" ref="O252:O257" si="8">IF(K252=$P$192, 0, IF(K252="S", 0, 1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>9</v>
       </c>
       <c r="B253">
         <v>28</v>
       </c>
-      <c r="C253">
-        <v>0</v>
-      </c>
-      <c r="D253">
-        <v>0</v>
-      </c>
-      <c r="E253">
+      <c r="C253" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D253" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E253" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F253">
@@ -7251,21 +8865,38 @@
       <c r="G253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H253" s="10"/>
+      <c r="J253" s="10"/>
+      <c r="M253">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O253">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>9</v>
       </c>
       <c r="B254">
         <v>29</v>
       </c>
-      <c r="C254">
-        <v>0</v>
-      </c>
-      <c r="D254">
-        <v>0</v>
-      </c>
-      <c r="E254">
+      <c r="C254" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D254" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E254" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F254">
@@ -7274,21 +8905,38 @@
       <c r="G254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H254" s="10"/>
+      <c r="J254" s="10"/>
+      <c r="M254">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O254">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>9</v>
       </c>
       <c r="B255">
         <v>30</v>
       </c>
-      <c r="C255">
-        <v>0</v>
-      </c>
-      <c r="D255">
-        <v>0</v>
-      </c>
-      <c r="E255">
+      <c r="C255" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D255" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E255" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F255">
@@ -7297,21 +8945,38 @@
       <c r="G255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H255" s="10"/>
+      <c r="J255" s="10"/>
+      <c r="M255">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O255">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>9</v>
       </c>
       <c r="B256">
         <v>31</v>
       </c>
-      <c r="C256">
-        <v>0</v>
-      </c>
-      <c r="D256">
-        <v>0</v>
-      </c>
-      <c r="E256">
+      <c r="C256" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D256" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E256" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F256">
@@ -7320,21 +8985,38 @@
       <c r="G256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H256" s="10"/>
+      <c r="J256" s="10"/>
+      <c r="M256">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O256">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>9</v>
       </c>
       <c r="B257">
         <v>32</v>
       </c>
-      <c r="C257">
-        <v>0</v>
-      </c>
-      <c r="D257">
-        <v>0</v>
-      </c>
-      <c r="E257">
+      <c r="C257" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D257" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E257" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F257">
@@ -7343,8 +9025,22 @@
       <c r="G257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H257" s="10"/>
+      <c r="J257" s="10"/>
+      <c r="M257">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O257">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>12</v>
       </c>
@@ -7367,7 +9063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>12</v>
       </c>
@@ -7390,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>12</v>
       </c>
@@ -7413,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>12</v>
       </c>
@@ -7436,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>12</v>
       </c>
@@ -7459,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>12</v>
       </c>
@@ -7482,7 +9178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>12</v>
       </c>
@@ -7505,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>12</v>
       </c>
@@ -7528,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>12</v>
       </c>
@@ -7551,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>12</v>
       </c>
@@ -7574,7 +9270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>12</v>
       </c>
@@ -7597,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>12</v>
       </c>
@@ -7620,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>12</v>
       </c>
@@ -7643,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>12</v>
       </c>
@@ -7666,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>12</v>
       </c>
@@ -8089,8 +9785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3F259E-EF3B-4E40-949C-0C8D5E45A455}">
   <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="K286" sqref="K286"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9210,13 +10906,13 @@
         <v>13</v>
       </c>
       <c r="D49">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -12749,13 +14445,13 @@
         <v>10</v>
       </c>
       <c r="C203">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -12795,13 +14491,13 @@
         <v>12</v>
       </c>
       <c r="C205">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -12841,13 +14537,13 @@
         <v>14</v>
       </c>
       <c r="C207">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -12887,13 +14583,13 @@
         <v>16</v>
       </c>
       <c r="C209">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -12936,7 +14632,7 @@
         <v>11</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -12982,7 +14678,7 @@
         <v>10</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -13025,10 +14721,10 @@
         <v>22</v>
       </c>
       <c r="C215">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -13071,10 +14767,10 @@
         <v>24</v>
       </c>
       <c r="C217">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -13117,13 +14813,13 @@
         <v>26</v>
       </c>
       <c r="C219">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -13163,13 +14859,13 @@
         <v>28</v>
       </c>
       <c r="C221">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -13209,13 +14905,13 @@
         <v>30</v>
       </c>
       <c r="C223">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -13255,13 +14951,13 @@
         <v>32</v>
       </c>
       <c r="C225">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -13301,13 +14997,13 @@
         <v>2</v>
       </c>
       <c r="C227">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D227">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -13347,13 +15043,13 @@
         <v>4</v>
       </c>
       <c r="C229">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -13393,13 +15089,13 @@
         <v>6</v>
       </c>
       <c r="C231">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -13439,13 +15135,13 @@
         <v>8</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -13488,7 +15184,7 @@
         <v>11</v>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -13534,7 +15230,7 @@
         <v>10</v>
       </c>
       <c r="D237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -13577,10 +15273,10 @@
         <v>14</v>
       </c>
       <c r="C239">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D239">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -13623,13 +15319,13 @@
         <v>16</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -13669,13 +15365,13 @@
         <v>18</v>
       </c>
       <c r="C243">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -13715,13 +15411,13 @@
         <v>20</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -13761,13 +15457,13 @@
         <v>22</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -14751,8 +16447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1620C6-ABFD-8749-8052-FB6E739E2A3D}">
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G169" sqref="G169"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="B40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15230,7 +16926,7 @@
         <v>42</v>
       </c>
       <c r="D40">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -16780,10 +18476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6155975-9163-6745-86DE-64EA3CD700DC}">
-  <dimension ref="B4:R211"/>
+  <dimension ref="B4:T211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="E4:J18"/>
+      <selection activeCell="E4" sqref="E4:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16792,7 +18488,7 @@
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -16802,14 +18498,30 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="19" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -16828,14 +18540,30 @@
       <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="J5" s="22" t="s">
+      <c r="I5" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -16851,14 +18579,28 @@
       <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I6" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -16874,14 +18616,24 @@
       <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I7" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -16897,24 +18649,48 @@
       <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I8" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -16933,14 +18709,30 @@
       <c r="H10" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -16956,14 +18748,28 @@
       <c r="H11" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="J11" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -16979,14 +18785,24 @@
       <c r="H12" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="22" t="s">
+      <c r="I12" s="19" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -17002,18 +18818,18 @@
       <c r="H13" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I13" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>11</v>
       </c>
@@ -17026,14 +18842,14 @@
       <c r="H15" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I15" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F16">
         <v>1</v>
       </c>
@@ -17043,11 +18859,11 @@
       <c r="H16" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>137</v>
+      <c r="I16" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
@@ -17060,11 +18876,11 @@
       <c r="H17" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>139</v>
+      <c r="I17" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
@@ -17077,11 +18893,11 @@
       <c r="H18" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="J18" s="22" t="s">
+      <c r="I18" s="19" t="s">
         <v>141</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
@@ -17971,7 +19787,7 @@
       <c r="K80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="L80" s="18" t="s">
+      <c r="L80" s="10" t="s">
         <v>59</v>
       </c>
       <c r="M80" s="13" t="s">
@@ -18009,7 +19825,7 @@
       <c r="K81" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L81" s="18" t="s">
+      <c r="L81" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M81" s="13" t="s">
@@ -18048,7 +19864,7 @@
       <c r="K82" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L82" s="18" t="s">
+      <c r="L82" s="10" t="s">
         <v>75</v>
       </c>
       <c r="M82" s="13" t="s">
@@ -18087,7 +19903,7 @@
       <c r="K83" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="L83" s="18" t="s">
+      <c r="L83" s="10" t="s">
         <v>83</v>
       </c>
       <c r="M83" s="13" t="s">
@@ -18126,7 +19942,7 @@
       <c r="K84" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L84" s="18" t="s">
+      <c r="L84" s="10" t="s">
         <v>91</v>
       </c>
       <c r="M84" s="13" t="s">
@@ -18165,7 +19981,7 @@
       <c r="K85" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="L85" s="18" t="s">
+      <c r="L85" s="10" t="s">
         <v>99</v>
       </c>
       <c r="M85" s="13" t="s">
@@ -18204,7 +20020,7 @@
       <c r="K86" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="L86" s="19" t="s">
+      <c r="L86" s="18" t="s">
         <v>107</v>
       </c>
       <c r="M86" s="15" t="s">
@@ -18273,7 +20089,7 @@
       <c r="J89" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="20" t="s">
+      <c r="K89" s="10" t="s">
         <v>115</v>
       </c>
     </row>
@@ -18294,28 +20110,28 @@
       <c r="J90">
         <v>8</v>
       </c>
-      <c r="K90" s="18" t="s">
+      <c r="K90" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="L90" s="18" t="s">
+      <c r="L90" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="M90" s="18" t="s">
+      <c r="M90" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N90" s="18" t="s">
+      <c r="N90" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="O90" s="18" t="s">
+      <c r="O90" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P90" s="18" t="s">
+      <c r="P90" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="Q90" s="18" t="s">
+      <c r="Q90" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="R90" s="18" t="s">
+      <c r="R90" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -18336,28 +20152,28 @@
       <c r="J91">
         <v>7</v>
       </c>
-      <c r="K91" s="18" t="s">
+      <c r="K91" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L91" s="18" t="s">
+      <c r="L91" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M91" s="18" t="s">
+      <c r="M91" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N91" s="18" t="s">
+      <c r="N91" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="O91" s="18" t="s">
+      <c r="O91" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P91" s="18" t="s">
+      <c r="P91" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Q91" s="18" t="s">
+      <c r="Q91" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="R91" s="18" t="s">
+      <c r="R91" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -18378,28 +20194,28 @@
       <c r="J92">
         <v>6</v>
       </c>
-      <c r="K92" s="18" t="s">
+      <c r="K92" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="L92" s="18" t="s">
+      <c r="L92" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="M92" s="18" t="s">
+      <c r="M92" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N92" s="18" t="s">
+      <c r="N92" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O92" s="18" t="s">
+      <c r="O92" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="P92" s="18" t="s">
+      <c r="P92" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="Q92" s="18" t="s">
+      <c r="Q92" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="R92" s="18" t="s">
+      <c r="R92" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -18420,28 +20236,28 @@
       <c r="J93">
         <v>5</v>
       </c>
-      <c r="K93" s="18" t="s">
+      <c r="K93" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="L93" s="18" t="s">
+      <c r="L93" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M93" s="18" t="s">
+      <c r="M93" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N93" s="18" t="s">
+      <c r="N93" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="O93" s="18" t="s">
+      <c r="O93" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="P93" s="18" t="s">
+      <c r="P93" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q93" s="18" t="s">
+      <c r="Q93" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="R93" s="18" t="s">
+      <c r="R93" s="10" t="s">
         <v>74</v>
       </c>
     </row>
@@ -18459,31 +20275,31 @@
       <c r="F94">
         <v>8</v>
       </c>
-      <c r="J94" s="21">
-        <v>4</v>
-      </c>
-      <c r="K94" s="18" t="s">
+      <c r="J94">
+        <v>4</v>
+      </c>
+      <c r="K94" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="L94" s="18" t="s">
+      <c r="L94" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M94" s="18" t="s">
+      <c r="M94" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="N94" s="18" t="s">
+      <c r="N94" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O94" s="18" t="s">
+      <c r="O94" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="P94" s="18" t="s">
+      <c r="P94" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Q94" s="18" t="s">
+      <c r="Q94" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="R94" s="18" t="s">
+      <c r="R94" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -18504,28 +20320,28 @@
       <c r="J95">
         <v>3</v>
       </c>
-      <c r="K95" s="18" t="s">
+      <c r="K95" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="L95" s="18" t="s">
+      <c r="L95" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="M95" s="18" t="s">
+      <c r="M95" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="N95" s="18" t="s">
+      <c r="N95" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="O95" s="18" t="s">
+      <c r="O95" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="P95" s="18" t="s">
+      <c r="P95" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Q95" s="18" t="s">
+      <c r="Q95" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="R95" s="18" t="s">
+      <c r="R95" s="10" t="s">
         <v>90</v>
       </c>
     </row>
@@ -18547,28 +20363,28 @@
       <c r="J96">
         <v>2</v>
       </c>
-      <c r="K96" s="18" t="s">
+      <c r="K96" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="L96" s="18" t="s">
+      <c r="L96" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="M96" s="18" t="s">
+      <c r="M96" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="N96" s="18" t="s">
+      <c r="N96" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="O96" s="18" t="s">
+      <c r="O96" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="P96" s="18" t="s">
+      <c r="P96" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="Q96" s="18" t="s">
+      <c r="Q96" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="R96" s="18" t="s">
+      <c r="R96" s="10" t="s">
         <v>98</v>
       </c>
     </row>
@@ -18590,28 +20406,28 @@
       <c r="J97">
         <v>1</v>
       </c>
-      <c r="K97" s="18" t="s">
+      <c r="K97" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="L97" s="18" t="s">
+      <c r="L97" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="M97" s="18" t="s">
+      <c r="M97" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="N97" s="18" t="s">
+      <c r="N97" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="O97" s="18" t="s">
+      <c r="O97" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="P97" s="18" t="s">
+      <c r="P97" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="Q97" s="18" t="s">
+      <c r="Q97" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="R97" s="18" t="s">
+      <c r="R97" s="10" t="s">
         <v>106</v>
       </c>
     </row>
@@ -18670,7 +20486,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K99" s="20" t="s">
+      <c r="K99" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -20294,4 +22110,1198 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC2B2D4-17CC-374D-879B-0E44BE06E68A}">
+  <dimension ref="B3:AB85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:D85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="V5" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="V6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>13</v>
+      </c>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>16</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>17</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>19</v>
+      </c>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>21</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>22</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>24</v>
+      </c>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>25</v>
+      </c>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>26</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>27</v>
+      </c>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>28</v>
+      </c>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>29</v>
+      </c>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>31</v>
+      </c>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>32</v>
+      </c>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>12</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>13</v>
+      </c>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>14</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>15</v>
+      </c>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>16</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>18</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>19</v>
+      </c>
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>21</v>
+      </c>
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>22</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>23</v>
+      </c>
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>24</v>
+      </c>
+      <c r="D77" s="10"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>9</v>
+      </c>
+      <c r="C78">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>26</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>27</v>
+      </c>
+      <c r="D80" s="10"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>28</v>
+      </c>
+      <c r="D81" s="10"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>29</v>
+      </c>
+      <c r="D82" s="10"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+      <c r="D83" s="10"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>31</v>
+      </c>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>32</v>
+      </c>
+      <c r="D85" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mapping/mapping_TB2021July_v1.xlsx
+++ b/mapping/mapping_TB2021July_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khwang/scratch/TB2023July/preparation/dev_230622/TB2023/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAD8497-DDB7-BC4D-99AB-27EF9D5D48D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051377B8-894E-9944-A00A-078FBF1ECD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13100" yWindow="500" windowWidth="55700" windowHeight="28300" activeTab="1" xr2:uid="{9904E546-8807-0449-B43D-5949530D5B54}"/>
+    <workbookView xWindow="23080" yWindow="500" windowWidth="45720" windowHeight="28300" xr2:uid="{9904E546-8807-0449-B43D-5949530D5B54}"/>
   </bookViews>
   <sheets>
     <sheet name="dynamic" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="167">
   <si>
     <t>MID</t>
   </si>
@@ -1005,11 +1005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FA2B49-E75F-9B4E-BCDE-F5B7F2A15CFB}">
-  <dimension ref="A1:W289"/>
+  <dimension ref="A1:Y289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R235" sqref="R235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5937,7 +5937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>6</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>8</v>
       </c>
@@ -5995,8 +5995,12 @@
         <v>0</v>
       </c>
       <c r="H194" s="10"/>
-      <c r="I194" s="10"/>
-      <c r="J194" s="10"/>
+      <c r="I194" s="10">
+        <v>0</v>
+      </c>
+      <c r="J194" s="10">
+        <v>0</v>
+      </c>
       <c r="M194">
         <f>IF(L194 = $O$193, 0,  VLOOKUP(L194,$R$190:$S$194, 2, FALSE))</f>
         <v>0</v>
@@ -6015,8 +6019,10 @@
       <c r="S194">
         <v>14</v>
       </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X194" s="10"/>
+      <c r="Y194" s="10"/>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>8</v>
       </c>
@@ -6069,8 +6075,10 @@
       <c r="S195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X195" s="10"/>
+      <c r="Y195" s="10"/>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>8</v>
       </c>
@@ -6096,8 +6104,12 @@
         <v>0</v>
       </c>
       <c r="H196" s="10"/>
-      <c r="I196" s="10"/>
-      <c r="J196" s="10"/>
+      <c r="I196" s="10">
+        <v>0</v>
+      </c>
+      <c r="J196" s="10">
+        <v>0</v>
+      </c>
       <c r="M196">
         <f t="shared" ref="M196:M257" si="5">IF(L196 = $O$193, 0,  VLOOKUP(L196,$R$190:$S$194, 2, FALSE))</f>
         <v>0</v>
@@ -6110,8 +6122,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X196" s="10"/>
+      <c r="Y196" s="10"/>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>8</v>
       </c>
@@ -6124,7 +6138,7 @@
       </c>
       <c r="D197" s="10">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E197" s="10">
         <f t="shared" si="3"/>
@@ -6138,10 +6152,10 @@
       </c>
       <c r="H197" s="10"/>
       <c r="I197" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J197" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K197" t="s">
         <v>42</v>
@@ -6155,14 +6169,16 @@
       </c>
       <c r="N197">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O197">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X197" s="10"/>
+      <c r="Y197" s="10"/>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>8</v>
       </c>
@@ -6188,8 +6204,12 @@
         <v>0</v>
       </c>
       <c r="H198" s="10"/>
-      <c r="I198" s="10"/>
-      <c r="J198" s="10"/>
+      <c r="I198" s="10">
+        <v>0</v>
+      </c>
+      <c r="J198" s="10">
+        <v>0</v>
+      </c>
       <c r="M198">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6211,8 +6231,10 @@
       <c r="W198" s="19" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X198" s="10"/>
+      <c r="Y198" s="10"/>
+    </row>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>8</v>
       </c>
@@ -6280,8 +6302,10 @@
       <c r="W199" s="19" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X199" s="10"/>
+      <c r="Y199" s="10"/>
+    </row>
+    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>8</v>
       </c>
@@ -6307,8 +6331,12 @@
         <v>0</v>
       </c>
       <c r="H200" s="10"/>
-      <c r="I200" s="10"/>
-      <c r="J200" s="10"/>
+      <c r="I200" s="10">
+        <v>0</v>
+      </c>
+      <c r="J200" s="10">
+        <v>0</v>
+      </c>
       <c r="M200">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6336,8 +6364,10 @@
       <c r="W200" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X200" s="10"/>
+      <c r="Y200" s="10"/>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>8</v>
       </c>
@@ -6350,7 +6380,7 @@
       </c>
       <c r="D201" s="10">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E201" s="10">
         <f t="shared" si="3"/>
@@ -6364,10 +6394,10 @@
       </c>
       <c r="H201" s="10"/>
       <c r="I201" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J201" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K201" t="s">
         <v>42</v>
@@ -6381,7 +6411,7 @@
       </c>
       <c r="N201">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O201">
         <f t="shared" si="4"/>
@@ -6402,8 +6432,10 @@
       <c r="W201" s="19" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X201" s="10"/>
+      <c r="Y201" s="10"/>
+    </row>
+    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>8</v>
       </c>
@@ -6429,8 +6461,12 @@
         <v>0</v>
       </c>
       <c r="H202" s="10"/>
-      <c r="I202" s="10"/>
-      <c r="J202" s="10"/>
+      <c r="I202" s="10">
+        <v>0</v>
+      </c>
+      <c r="J202" s="10">
+        <v>0</v>
+      </c>
       <c r="M202">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6458,8 +6494,10 @@
       <c r="W202" s="19" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X202" s="10"/>
+      <c r="Y202" s="10"/>
+    </row>
+    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>8</v>
       </c>
@@ -6472,7 +6510,7 @@
       </c>
       <c r="D203" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E203" s="10">
         <f t="shared" si="3"/>
@@ -6486,10 +6524,10 @@
       </c>
       <c r="H203" s="10"/>
       <c r="I203" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J203" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K203" t="s">
         <v>42</v>
@@ -6503,7 +6541,7 @@
       </c>
       <c r="N203">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O203">
         <f t="shared" si="4"/>
@@ -6511,8 +6549,10 @@
       </c>
       <c r="V203" s="19"/>
       <c r="W203" s="19"/>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X203" s="10"/>
+      <c r="Y203" s="10"/>
+    </row>
+    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>8</v>
       </c>
@@ -6538,8 +6578,12 @@
         <v>0</v>
       </c>
       <c r="H204" s="10"/>
-      <c r="I204" s="10"/>
-      <c r="J204" s="10"/>
+      <c r="I204" s="10">
+        <v>0</v>
+      </c>
+      <c r="J204" s="10">
+        <v>0</v>
+      </c>
       <c r="M204">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6570,8 +6614,10 @@
       <c r="W204" s="19" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X204" s="10"/>
+      <c r="Y204" s="10"/>
+    </row>
+    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>8</v>
       </c>
@@ -6584,7 +6630,7 @@
       </c>
       <c r="D205" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E205" s="10">
         <f t="shared" si="3"/>
@@ -6598,10 +6644,10 @@
       </c>
       <c r="H205" s="10"/>
       <c r="I205" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J205" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K205" t="s">
         <v>42</v>
@@ -6615,7 +6661,7 @@
       </c>
       <c r="N205">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O205">
         <f t="shared" si="4"/>
@@ -6636,8 +6682,10 @@
       <c r="W205" s="19" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X205" s="10"/>
+      <c r="Y205" s="10"/>
+    </row>
+    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>8</v>
       </c>
@@ -6663,8 +6711,12 @@
         <v>0</v>
       </c>
       <c r="H206" s="10"/>
-      <c r="I206" s="10"/>
-      <c r="J206" s="10"/>
+      <c r="I206" s="10">
+        <v>0</v>
+      </c>
+      <c r="J206" s="10">
+        <v>0</v>
+      </c>
       <c r="M206">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6692,8 +6744,10 @@
       <c r="W206" s="19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X206" s="10"/>
+      <c r="Y206" s="10"/>
+    </row>
+    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>8</v>
       </c>
@@ -6706,7 +6760,7 @@
       </c>
       <c r="D207" s="10">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E207" s="10">
         <f t="shared" si="3"/>
@@ -6720,10 +6774,10 @@
       </c>
       <c r="H207" s="10"/>
       <c r="I207" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J207" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K207" t="s">
         <v>42</v>
@@ -6737,7 +6791,7 @@
       </c>
       <c r="N207">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O207">
         <f t="shared" si="4"/>
@@ -6758,8 +6812,10 @@
       <c r="W207" s="19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X207" s="10"/>
+      <c r="Y207" s="10"/>
+    </row>
+    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>8</v>
       </c>
@@ -6785,8 +6841,12 @@
         <v>0</v>
       </c>
       <c r="H208" s="10"/>
-      <c r="I208" s="10"/>
-      <c r="J208" s="10"/>
+      <c r="I208" s="10">
+        <v>0</v>
+      </c>
+      <c r="J208" s="10">
+        <v>0</v>
+      </c>
       <c r="M208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6801,8 +6861,10 @@
       </c>
       <c r="V208" s="19"/>
       <c r="W208" s="19"/>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X208" s="10"/>
+      <c r="Y208" s="10"/>
+    </row>
+    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>8</v>
       </c>
@@ -6815,7 +6877,7 @@
       </c>
       <c r="D209" s="10">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E209" s="10">
         <f t="shared" si="3"/>
@@ -6829,10 +6891,10 @@
       </c>
       <c r="H209" s="10"/>
       <c r="I209" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J209" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K209" t="s">
         <v>42</v>
@@ -6846,7 +6908,7 @@
       </c>
       <c r="N209">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O209">
         <f t="shared" si="4"/>
@@ -6870,8 +6932,10 @@
       <c r="W209" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X209" s="10"/>
+      <c r="Y209" s="10"/>
+    </row>
+    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>8</v>
       </c>
@@ -6897,8 +6961,12 @@
         <v>0</v>
       </c>
       <c r="H210" s="10"/>
-      <c r="I210" s="10"/>
-      <c r="J210" s="10"/>
+      <c r="I210" s="10">
+        <v>0</v>
+      </c>
+      <c r="J210" s="10">
+        <v>0</v>
+      </c>
       <c r="M210">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6926,8 +6994,10 @@
       <c r="W210" s="19" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X210" s="10"/>
+      <c r="Y210" s="10"/>
+    </row>
+    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>8</v>
       </c>
@@ -6940,7 +7010,7 @@
       </c>
       <c r="D211" s="10">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E211" s="10">
         <f t="shared" si="3"/>
@@ -6954,10 +7024,10 @@
       </c>
       <c r="H211" s="10"/>
       <c r="I211" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J211" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K211" t="s">
         <v>42</v>
@@ -6971,7 +7041,7 @@
       </c>
       <c r="N211">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O211">
         <f t="shared" si="4"/>
@@ -6992,8 +7062,10 @@
       <c r="W211" s="19" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X211" s="10"/>
+      <c r="Y211" s="10"/>
+    </row>
+    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>8</v>
       </c>
@@ -7019,8 +7091,12 @@
         <v>0</v>
       </c>
       <c r="H212" s="10"/>
-      <c r="I212" s="10"/>
-      <c r="J212" s="10"/>
+      <c r="I212" s="10">
+        <v>0</v>
+      </c>
+      <c r="J212" s="10">
+        <v>0</v>
+      </c>
       <c r="M212">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7048,8 +7124,10 @@
       <c r="W212" s="19" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X212" s="10"/>
+      <c r="Y212" s="10"/>
+    </row>
+    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>8</v>
       </c>
@@ -7101,8 +7179,10 @@
       </c>
       <c r="S213" s="19"/>
       <c r="T213" s="19"/>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X213" s="10"/>
+      <c r="Y213" s="10"/>
+    </row>
+    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>8</v>
       </c>
@@ -7128,8 +7208,12 @@
         <v>0</v>
       </c>
       <c r="H214" s="10"/>
-      <c r="I214" s="10"/>
-      <c r="J214" s="10"/>
+      <c r="I214" s="10">
+        <v>0</v>
+      </c>
+      <c r="J214" s="10">
+        <v>0</v>
+      </c>
       <c r="M214">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7144,8 +7228,10 @@
       </c>
       <c r="S214" s="19"/>
       <c r="T214" s="19"/>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X214" s="10"/>
+      <c r="Y214" s="10"/>
+    </row>
+    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>8</v>
       </c>
@@ -7158,7 +7244,7 @@
       </c>
       <c r="D215" s="10">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E215" s="10">
         <f t="shared" si="3"/>
@@ -7172,10 +7258,10 @@
       </c>
       <c r="H215" s="10"/>
       <c r="I215" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J215" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K215" t="s">
         <v>42</v>
@@ -7189,7 +7275,7 @@
       </c>
       <c r="N215">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O215">
         <f t="shared" si="4"/>
@@ -7197,8 +7283,10 @@
       </c>
       <c r="S215" s="19"/>
       <c r="T215" s="19"/>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X215" s="10"/>
+      <c r="Y215" s="10"/>
+    </row>
+    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>8</v>
       </c>
@@ -7224,8 +7312,12 @@
         <v>0</v>
       </c>
       <c r="H216" s="10"/>
-      <c r="I216" s="10"/>
-      <c r="J216" s="10"/>
+      <c r="I216" s="10">
+        <v>0</v>
+      </c>
+      <c r="J216" s="10">
+        <v>0</v>
+      </c>
       <c r="M216">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7240,8 +7332,10 @@
       </c>
       <c r="S216" s="19"/>
       <c r="T216" s="19"/>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X216" s="10"/>
+      <c r="Y216" s="10"/>
+    </row>
+    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>8</v>
       </c>
@@ -7267,8 +7361,12 @@
         <v>0</v>
       </c>
       <c r="H217" s="10"/>
-      <c r="I217" s="10"/>
-      <c r="J217" s="10"/>
+      <c r="I217" s="10">
+        <v>0</v>
+      </c>
+      <c r="J217" s="10">
+        <v>0</v>
+      </c>
       <c r="M217">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7283,8 +7381,10 @@
       </c>
       <c r="S217" s="19"/>
       <c r="T217" s="19"/>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X217" s="10"/>
+      <c r="Y217" s="10"/>
+    </row>
+    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>8</v>
       </c>
@@ -7310,8 +7410,12 @@
         <v>0</v>
       </c>
       <c r="H218" s="10"/>
-      <c r="I218" s="10"/>
-      <c r="J218" s="10"/>
+      <c r="I218" s="10">
+        <v>0</v>
+      </c>
+      <c r="J218" s="10">
+        <v>0</v>
+      </c>
       <c r="M218">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7324,8 +7428,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X218" s="10"/>
+      <c r="Y218" s="10"/>
+    </row>
+    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>8</v>
       </c>
@@ -7375,8 +7481,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X219" s="10"/>
+      <c r="Y219" s="10"/>
+    </row>
+    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>8</v>
       </c>
@@ -7402,8 +7510,12 @@
         <v>0</v>
       </c>
       <c r="H220" s="10"/>
-      <c r="I220" s="10"/>
-      <c r="J220" s="10"/>
+      <c r="I220" s="10">
+        <v>0</v>
+      </c>
+      <c r="J220" s="10">
+        <v>0</v>
+      </c>
       <c r="M220">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7416,8 +7528,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X220" s="10"/>
+      <c r="Y220" s="10"/>
+    </row>
+    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>8</v>
       </c>
@@ -7443,8 +7557,12 @@
         <v>0</v>
       </c>
       <c r="H221" s="10"/>
-      <c r="I221" s="10"/>
-      <c r="J221" s="10"/>
+      <c r="I221" s="10">
+        <v>0</v>
+      </c>
+      <c r="J221" s="10">
+        <v>0</v>
+      </c>
       <c r="M221">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7457,8 +7575,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X221" s="10"/>
+      <c r="Y221" s="10"/>
+    </row>
+    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>8</v>
       </c>
@@ -7484,8 +7604,12 @@
         <v>0</v>
       </c>
       <c r="H222" s="10"/>
-      <c r="I222" s="10"/>
-      <c r="J222" s="10"/>
+      <c r="I222" s="10">
+        <v>0</v>
+      </c>
+      <c r="J222" s="10">
+        <v>0</v>
+      </c>
       <c r="M222">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7498,8 +7622,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X222" s="10"/>
+      <c r="Y222" s="10"/>
+    </row>
+    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>8</v>
       </c>
@@ -7525,8 +7651,12 @@
         <v>0</v>
       </c>
       <c r="H223" s="10"/>
-      <c r="I223" s="10"/>
-      <c r="J223" s="10"/>
+      <c r="I223" s="10">
+        <v>0</v>
+      </c>
+      <c r="J223" s="10">
+        <v>0</v>
+      </c>
       <c r="M223">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7539,8 +7669,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X223" s="10"/>
+      <c r="Y223" s="10"/>
+    </row>
+    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>8</v>
       </c>
@@ -7566,8 +7698,12 @@
         <v>0</v>
       </c>
       <c r="H224" s="10"/>
-      <c r="I224" s="10"/>
-      <c r="J224" s="10"/>
+      <c r="I224" s="10">
+        <v>0</v>
+      </c>
+      <c r="J224" s="10">
+        <v>0</v>
+      </c>
       <c r="M224">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7580,8 +7716,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X224" s="10"/>
+      <c r="Y224" s="10"/>
+    </row>
+    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>8</v>
       </c>
@@ -7607,8 +7745,12 @@
         <v>0</v>
       </c>
       <c r="H225" s="10"/>
-      <c r="I225" s="10"/>
-      <c r="J225" s="10"/>
+      <c r="I225" s="10">
+        <v>0</v>
+      </c>
+      <c r="J225" s="10">
+        <v>0</v>
+      </c>
       <c r="M225">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7621,8 +7763,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X225" s="10"/>
+      <c r="Y225" s="10"/>
+    </row>
+    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>9</v>
       </c>
@@ -7647,7 +7791,12 @@
       <c r="G226">
         <v>0</v>
       </c>
-      <c r="I226" s="10"/>
+      <c r="I226" s="10">
+        <v>0</v>
+      </c>
+      <c r="J226" s="10">
+        <v>0</v>
+      </c>
       <c r="M226">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7660,8 +7809,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X226" s="10"/>
+      <c r="Y226" s="10"/>
+    </row>
+    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>9</v>
       </c>
@@ -7711,8 +7862,10 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X227" s="10"/>
+      <c r="Y227" s="10"/>
+    </row>
+    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>9</v>
       </c>
@@ -7738,8 +7891,12 @@
         <v>0</v>
       </c>
       <c r="H228" s="10"/>
-      <c r="I228" s="10"/>
-      <c r="J228" s="10"/>
+      <c r="I228" s="10">
+        <v>0</v>
+      </c>
+      <c r="J228" s="10">
+        <v>0</v>
+      </c>
       <c r="M228">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7752,8 +7909,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X228" s="10"/>
+      <c r="Y228" s="10"/>
+    </row>
+    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>9</v>
       </c>
@@ -7766,7 +7925,7 @@
       </c>
       <c r="D229" s="10">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E229" s="10">
         <f t="shared" si="3"/>
@@ -7780,10 +7939,10 @@
       </c>
       <c r="H229" s="10"/>
       <c r="I229" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J229" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K229" t="s">
         <v>43</v>
@@ -7797,14 +7956,16 @@
       </c>
       <c r="N229">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O229">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X229" s="10"/>
+      <c r="Y229" s="10"/>
+    </row>
+    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>9</v>
       </c>
@@ -7830,8 +7991,12 @@
         <v>0</v>
       </c>
       <c r="H230" s="10"/>
-      <c r="I230" s="10"/>
-      <c r="J230" s="10"/>
+      <c r="I230" s="10">
+        <v>0</v>
+      </c>
+      <c r="J230" s="10">
+        <v>0</v>
+      </c>
       <c r="M230">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7844,8 +8009,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X230" s="10"/>
+      <c r="Y230" s="10"/>
+    </row>
+    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>9</v>
       </c>
@@ -7895,8 +8062,10 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X231" s="10"/>
+      <c r="Y231" s="10"/>
+    </row>
+    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>9</v>
       </c>
@@ -7922,8 +8091,12 @@
         <v>0</v>
       </c>
       <c r="H232" s="10"/>
-      <c r="I232" s="10"/>
-      <c r="J232" s="10"/>
+      <c r="I232" s="10">
+        <v>0</v>
+      </c>
+      <c r="J232" s="10">
+        <v>0</v>
+      </c>
       <c r="M232">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -7936,8 +8109,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X232" s="10"/>
+      <c r="Y232" s="10"/>
+    </row>
+    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>9</v>
       </c>
@@ -7950,7 +8125,7 @@
       </c>
       <c r="D233" s="10">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E233" s="10">
         <f t="shared" si="3"/>
@@ -7964,10 +8139,10 @@
       </c>
       <c r="H233" s="10"/>
       <c r="I233" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J233" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K233" t="s">
         <v>43</v>
@@ -7981,14 +8156,16 @@
       </c>
       <c r="N233">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O233">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X233" s="10"/>
+      <c r="Y233" s="10"/>
+    </row>
+    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>9</v>
       </c>
@@ -8013,7 +8190,12 @@
       <c r="G234">
         <v>0</v>
       </c>
-      <c r="I234" s="10"/>
+      <c r="I234" s="10">
+        <v>0</v>
+      </c>
+      <c r="J234" s="10">
+        <v>0</v>
+      </c>
       <c r="M234">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8026,8 +8208,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X234" s="10"/>
+      <c r="Y234" s="10"/>
+    </row>
+    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>9</v>
       </c>
@@ -8040,7 +8224,7 @@
       </c>
       <c r="D235" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E235" s="10">
         <f t="shared" si="3"/>
@@ -8054,10 +8238,10 @@
       </c>
       <c r="H235" s="10"/>
       <c r="I235" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J235" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K235" t="s">
         <v>43</v>
@@ -8071,14 +8255,16 @@
       </c>
       <c r="N235">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O235">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X235" s="10"/>
+      <c r="Y235" s="10"/>
+    </row>
+    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>9</v>
       </c>
@@ -8104,8 +8290,12 @@
         <v>0</v>
       </c>
       <c r="H236" s="10"/>
-      <c r="I236" s="10"/>
-      <c r="J236" s="10"/>
+      <c r="I236" s="10">
+        <v>0</v>
+      </c>
+      <c r="J236" s="10">
+        <v>0</v>
+      </c>
       <c r="M236">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8118,8 +8308,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X236" s="10"/>
+      <c r="Y236" s="10"/>
+    </row>
+    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>9</v>
       </c>
@@ -8132,7 +8324,7 @@
       </c>
       <c r="D237" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E237" s="10">
         <f t="shared" si="3"/>
@@ -8146,10 +8338,10 @@
       </c>
       <c r="H237" s="10"/>
       <c r="I237" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J237" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K237" t="s">
         <v>43</v>
@@ -8163,14 +8355,16 @@
       </c>
       <c r="N237">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O237">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X237" s="10"/>
+      <c r="Y237" s="10"/>
+    </row>
+    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>9</v>
       </c>
@@ -8196,8 +8390,12 @@
         <v>0</v>
       </c>
       <c r="H238" s="10"/>
-      <c r="I238" s="10"/>
-      <c r="J238" s="10"/>
+      <c r="I238" s="10">
+        <v>0</v>
+      </c>
+      <c r="J238" s="10">
+        <v>0</v>
+      </c>
       <c r="M238">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8210,8 +8408,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X238" s="10"/>
+      <c r="Y238" s="10"/>
+    </row>
+    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>9</v>
       </c>
@@ -8224,7 +8424,7 @@
       </c>
       <c r="D239" s="10">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E239" s="10">
         <f t="shared" si="3"/>
@@ -8238,10 +8438,10 @@
       </c>
       <c r="H239" s="10"/>
       <c r="I239" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J239" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K239" t="s">
         <v>43</v>
@@ -8255,14 +8455,16 @@
       </c>
       <c r="N239">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O239">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X239" s="10"/>
+      <c r="Y239" s="10"/>
+    </row>
+    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>9</v>
       </c>
@@ -8288,8 +8490,12 @@
         <v>0</v>
       </c>
       <c r="H240" s="10"/>
-      <c r="I240" s="10"/>
-      <c r="J240" s="10"/>
+      <c r="I240" s="10">
+        <v>0</v>
+      </c>
+      <c r="J240" s="10">
+        <v>0</v>
+      </c>
       <c r="M240">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8302,8 +8508,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X240" s="10"/>
+      <c r="Y240" s="10"/>
+    </row>
+    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>9</v>
       </c>
@@ -8316,7 +8524,7 @@
       </c>
       <c r="D241" s="10">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E241" s="10">
         <f t="shared" si="3"/>
@@ -8330,10 +8538,10 @@
       </c>
       <c r="H241" s="10"/>
       <c r="I241" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J241" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K241" t="s">
         <v>43</v>
@@ -8347,14 +8555,16 @@
       </c>
       <c r="N241">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O241">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X241" s="10"/>
+      <c r="Y241" s="10"/>
+    </row>
+    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>9</v>
       </c>
@@ -8379,7 +8589,12 @@
       <c r="G242">
         <v>0</v>
       </c>
-      <c r="I242" s="10"/>
+      <c r="I242" s="10">
+        <v>0</v>
+      </c>
+      <c r="J242" s="10">
+        <v>0</v>
+      </c>
       <c r="M242">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8392,8 +8607,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X242" s="10"/>
+      <c r="Y242" s="10"/>
+    </row>
+    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>9</v>
       </c>
@@ -8406,7 +8623,7 @@
       </c>
       <c r="D243" s="10">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E243" s="10">
         <f t="shared" si="3"/>
@@ -8420,10 +8637,10 @@
       </c>
       <c r="H243" s="10"/>
       <c r="I243" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J243" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K243" t="s">
         <v>43</v>
@@ -8437,14 +8654,16 @@
       </c>
       <c r="N243">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O243">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X243" s="10"/>
+      <c r="Y243" s="10"/>
+    </row>
+    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>9</v>
       </c>
@@ -8470,8 +8689,12 @@
         <v>0</v>
       </c>
       <c r="H244" s="10"/>
-      <c r="I244" s="10"/>
-      <c r="J244" s="10"/>
+      <c r="I244" s="10">
+        <v>0</v>
+      </c>
+      <c r="J244" s="10">
+        <v>0</v>
+      </c>
       <c r="M244">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8484,8 +8707,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X244" s="10"/>
+      <c r="Y244" s="10"/>
+    </row>
+    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>9</v>
       </c>
@@ -8535,8 +8760,10 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X245" s="10"/>
+      <c r="Y245" s="10"/>
+    </row>
+    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>9</v>
       </c>
@@ -8562,8 +8789,12 @@
         <v>0</v>
       </c>
       <c r="H246" s="10"/>
-      <c r="I246" s="10"/>
-      <c r="J246" s="10"/>
+      <c r="I246" s="10">
+        <v>0</v>
+      </c>
+      <c r="J246" s="10">
+        <v>0</v>
+      </c>
       <c r="M246">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8576,8 +8807,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X246" s="10"/>
+      <c r="Y246" s="10"/>
+    </row>
+    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>9</v>
       </c>
@@ -8590,7 +8823,7 @@
       </c>
       <c r="D247" s="10">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E247" s="10">
         <f t="shared" si="3"/>
@@ -8604,10 +8837,10 @@
       </c>
       <c r="H247" s="10"/>
       <c r="I247" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J247" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K247" t="s">
         <v>43</v>
@@ -8621,14 +8854,16 @@
       </c>
       <c r="N247">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O247">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X247" s="10"/>
+      <c r="Y247" s="10"/>
+    </row>
+    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>9</v>
       </c>
@@ -8654,8 +8889,12 @@
         <v>0</v>
       </c>
       <c r="H248" s="10"/>
-      <c r="I248" s="10"/>
-      <c r="J248" s="10"/>
+      <c r="I248" s="10">
+        <v>0</v>
+      </c>
+      <c r="J248" s="10">
+        <v>0</v>
+      </c>
       <c r="M248">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8668,8 +8907,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X248" s="10"/>
+      <c r="Y248" s="10"/>
+    </row>
+    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>9</v>
       </c>
@@ -8695,8 +8936,12 @@
         <v>0</v>
       </c>
       <c r="H249" s="10"/>
-      <c r="I249" s="10"/>
-      <c r="J249" s="10"/>
+      <c r="I249" s="10">
+        <v>0</v>
+      </c>
+      <c r="J249" s="10">
+        <v>0</v>
+      </c>
       <c r="M249">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8709,8 +8954,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X249" s="10"/>
+      <c r="Y249" s="10"/>
+    </row>
+    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>9</v>
       </c>
@@ -8735,7 +8982,12 @@
       <c r="G250">
         <v>0</v>
       </c>
-      <c r="I250" s="10"/>
+      <c r="I250" s="10">
+        <v>0</v>
+      </c>
+      <c r="J250" s="10">
+        <v>0</v>
+      </c>
       <c r="M250">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8748,8 +9000,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X250" s="10"/>
+      <c r="Y250" s="10"/>
+    </row>
+    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>9</v>
       </c>
@@ -8799,8 +9053,10 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X251" s="10"/>
+      <c r="Y251" s="10"/>
+    </row>
+    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>9</v>
       </c>
@@ -8826,7 +9082,12 @@
         <v>0</v>
       </c>
       <c r="H252" s="10"/>
-      <c r="J252" s="10"/>
+      <c r="I252" s="10">
+        <v>0</v>
+      </c>
+      <c r="J252" s="10">
+        <v>0</v>
+      </c>
       <c r="M252">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8839,8 +9100,10 @@
         <f t="shared" ref="O252:O257" si="8">IF(K252=$P$192, 0, IF(K252="S", 0, 1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X252" s="10"/>
+      <c r="Y252" s="10"/>
+    </row>
+    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>9</v>
       </c>
@@ -8866,7 +9129,12 @@
         <v>0</v>
       </c>
       <c r="H253" s="10"/>
-      <c r="J253" s="10"/>
+      <c r="I253" s="10">
+        <v>0</v>
+      </c>
+      <c r="J253" s="10">
+        <v>0</v>
+      </c>
       <c r="M253">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8879,8 +9147,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X253" s="10"/>
+      <c r="Y253" s="10"/>
+    </row>
+    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>9</v>
       </c>
@@ -8906,7 +9176,12 @@
         <v>0</v>
       </c>
       <c r="H254" s="10"/>
-      <c r="J254" s="10"/>
+      <c r="I254" s="10">
+        <v>0</v>
+      </c>
+      <c r="J254" s="10">
+        <v>0</v>
+      </c>
       <c r="M254">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8919,8 +9194,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X254" s="10"/>
+      <c r="Y254" s="10"/>
+    </row>
+    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>9</v>
       </c>
@@ -8946,7 +9223,12 @@
         <v>0</v>
       </c>
       <c r="H255" s="10"/>
-      <c r="J255" s="10"/>
+      <c r="I255" s="10">
+        <v>0</v>
+      </c>
+      <c r="J255" s="10">
+        <v>0</v>
+      </c>
       <c r="M255">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8959,8 +9241,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X255" s="10"/>
+      <c r="Y255" s="10"/>
+    </row>
+    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>9</v>
       </c>
@@ -8986,7 +9270,12 @@
         <v>0</v>
       </c>
       <c r="H256" s="10"/>
-      <c r="J256" s="10"/>
+      <c r="I256" s="10">
+        <v>0</v>
+      </c>
+      <c r="J256" s="10">
+        <v>0</v>
+      </c>
       <c r="M256">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -8999,8 +9288,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X256" s="10"/>
+      <c r="Y256" s="10"/>
+    </row>
+    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>9</v>
       </c>
@@ -9026,7 +9317,12 @@
         <v>0</v>
       </c>
       <c r="H257" s="10"/>
-      <c r="J257" s="10"/>
+      <c r="I257" s="10">
+        <v>0</v>
+      </c>
+      <c r="J257" s="10">
+        <v>0</v>
+      </c>
       <c r="M257">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -9039,8 +9335,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="X257" s="10"/>
+      <c r="Y257" s="10"/>
+    </row>
+    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>12</v>
       </c>
@@ -9063,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>12</v>
       </c>
@@ -9086,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>12</v>
       </c>
@@ -9109,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>12</v>
       </c>
@@ -9132,7 +9430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>12</v>
       </c>
@@ -9155,7 +9453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>12</v>
       </c>
@@ -9178,7 +9476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>12</v>
       </c>
@@ -9201,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>12</v>
       </c>
@@ -9224,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>12</v>
       </c>
@@ -9247,7 +9545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>12</v>
       </c>
@@ -9270,7 +9568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>12</v>
       </c>
@@ -9293,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>12</v>
       </c>
@@ -9316,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>12</v>
       </c>
@@ -9339,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>12</v>
       </c>
@@ -9362,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>12</v>
       </c>
@@ -9785,8 +10083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3F259E-EF3B-4E40-949C-0C8D5E45A455}">
   <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16448,7 +16746,7 @@
   <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="B40:D40"/>
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18479,7 +18777,7 @@
   <dimension ref="B4:T211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:J18"/>
+      <selection activeCell="E29" sqref="C29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22114,10 +22412,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC2B2D4-17CC-374D-879B-0E44BE06E68A}">
-  <dimension ref="B3:AB85"/>
+  <dimension ref="B3:AB115"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:D85"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52:P115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22790,7 +23088,7 @@
       </c>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>8</v>
       </c>
@@ -22801,7 +23099,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>8</v>
       </c>
@@ -22810,7 +23108,7 @@
       </c>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>8</v>
       </c>
@@ -22821,7 +23119,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>8</v>
       </c>
@@ -22830,7 +23128,7 @@
       </c>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>8</v>
       </c>
@@ -22841,7 +23139,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>8</v>
       </c>
@@ -22850,7 +23148,7 @@
       </c>
       <c r="D38" s="10"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>8</v>
       </c>
@@ -22860,8 +23158,32 @@
       <c r="D39" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="R39" s="10">
+        <v>0</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="T39" s="10">
+        <v>0</v>
+      </c>
+      <c r="U39" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="V39" s="10">
+        <v>0</v>
+      </c>
+      <c r="W39" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>8</v>
       </c>
@@ -22869,8 +23191,32 @@
         <v>19</v>
       </c>
       <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="R40" s="10">
+        <v>0</v>
+      </c>
+      <c r="S40" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="T40" s="10">
+        <v>0</v>
+      </c>
+      <c r="U40" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="V40" s="10">
+        <v>0</v>
+      </c>
+      <c r="W40" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>8</v>
       </c>
@@ -22880,8 +23226,32 @@
       <c r="D41" s="10" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P41" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="R41" s="10">
+        <v>0</v>
+      </c>
+      <c r="S41" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T41" s="10">
+        <v>0</v>
+      </c>
+      <c r="U41" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="V41" s="10">
+        <v>0</v>
+      </c>
+      <c r="W41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>8</v>
       </c>
@@ -22889,8 +23259,32 @@
         <v>21</v>
       </c>
       <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P42" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="R42" s="10">
+        <v>0</v>
+      </c>
+      <c r="S42" s="10">
+        <v>0</v>
+      </c>
+      <c r="T42" s="10">
+        <v>0</v>
+      </c>
+      <c r="U42" s="10">
+        <v>0</v>
+      </c>
+      <c r="V42" s="10">
+        <v>0</v>
+      </c>
+      <c r="W42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>8</v>
       </c>
@@ -22900,8 +23294,16 @@
       <c r="D43" s="10" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>8</v>
       </c>
@@ -22909,8 +23311,32 @@
         <v>23</v>
       </c>
       <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P44" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="R44" s="10">
+        <v>0</v>
+      </c>
+      <c r="S44" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="T44" s="10">
+        <v>0</v>
+      </c>
+      <c r="U44" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="V44" s="10">
+        <v>0</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>8</v>
       </c>
@@ -22918,8 +23344,32 @@
         <v>24</v>
       </c>
       <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P45" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="R45" s="10">
+        <v>0</v>
+      </c>
+      <c r="S45" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="T45" s="10">
+        <v>0</v>
+      </c>
+      <c r="U45" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="V45" s="10">
+        <v>0</v>
+      </c>
+      <c r="W45" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>8</v>
       </c>
@@ -22927,8 +23377,32 @@
         <v>25</v>
       </c>
       <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P46" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="R46" s="10">
+        <v>0</v>
+      </c>
+      <c r="S46" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="T46" s="10">
+        <v>0</v>
+      </c>
+      <c r="U46" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="V46" s="10">
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>8</v>
       </c>
@@ -22938,8 +23412,32 @@
       <c r="D47" s="10" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P47" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="R47" s="10">
+        <v>0</v>
+      </c>
+      <c r="S47" s="10">
+        <v>0</v>
+      </c>
+      <c r="T47" s="10">
+        <v>0</v>
+      </c>
+      <c r="U47" s="10">
+        <v>0</v>
+      </c>
+      <c r="V47" s="10">
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>8</v>
       </c>
@@ -22947,8 +23445,9 @@
         <v>27</v>
       </c>
       <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="W48" s="10"/>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>8</v>
       </c>
@@ -22957,7 +23456,7 @@
       </c>
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>8</v>
       </c>
@@ -22966,7 +23465,7 @@
       </c>
       <c r="D50" s="10"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>8</v>
       </c>
@@ -22975,7 +23474,7 @@
       </c>
       <c r="D51" s="10"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>8</v>
       </c>
@@ -22983,8 +23482,33 @@
         <v>31</v>
       </c>
       <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P52" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>0</v>
+      </c>
+      <c r="R52" s="10">
+        <v>0</v>
+      </c>
+      <c r="S52" s="10">
+        <v>0</v>
+      </c>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10">
+        <v>0</v>
+      </c>
+      <c r="V52" s="10">
+        <v>0</v>
+      </c>
+      <c r="W52" s="10">
+        <v>0</v>
+      </c>
+      <c r="X52" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>8</v>
       </c>
@@ -22992,16 +23516,66 @@
         <v>32</v>
       </c>
       <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P53" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="R53" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="S53" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="V53" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="W53" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="X53" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>9</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P54" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>0</v>
+      </c>
+      <c r="R54" s="10">
+        <v>0</v>
+      </c>
+      <c r="S54" s="10">
+        <v>0</v>
+      </c>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10">
+        <v>0</v>
+      </c>
+      <c r="V54" s="10">
+        <v>0</v>
+      </c>
+      <c r="W54" s="10">
+        <v>0</v>
+      </c>
+      <c r="X54" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>9</v>
       </c>
@@ -23011,8 +23585,33 @@
       <c r="D55" s="10" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P55" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="R55" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="S55" s="10">
+        <v>0</v>
+      </c>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="V55" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="W55" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="X55" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>9</v>
       </c>
@@ -23020,8 +23619,33 @@
         <v>3</v>
       </c>
       <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P56" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="10">
+        <v>0</v>
+      </c>
+      <c r="R56" s="10">
+        <v>0</v>
+      </c>
+      <c r="S56" s="10">
+        <v>0</v>
+      </c>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10">
+        <v>0</v>
+      </c>
+      <c r="V56" s="10">
+        <v>0</v>
+      </c>
+      <c r="W56" s="10">
+        <v>0</v>
+      </c>
+      <c r="X56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>9</v>
       </c>
@@ -23031,8 +23655,33 @@
       <c r="D57" s="10" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P57" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q57" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="R57" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="S57" s="10">
+        <v>0</v>
+      </c>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="V57" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="W57" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="X57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>9</v>
       </c>
@@ -23040,8 +23689,33 @@
         <v>5</v>
       </c>
       <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P58" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>0</v>
+      </c>
+      <c r="R58" s="10">
+        <v>0</v>
+      </c>
+      <c r="S58" s="10">
+        <v>0</v>
+      </c>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10">
+        <v>0</v>
+      </c>
+      <c r="V58" s="10">
+        <v>0</v>
+      </c>
+      <c r="W58" s="10">
+        <v>0</v>
+      </c>
+      <c r="X58" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>9</v>
       </c>
@@ -23051,8 +23725,34 @@
       <c r="D59" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P59" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q59" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="R59" s="10">
+        <v>0</v>
+      </c>
+      <c r="S59" s="10">
+        <v>0</v>
+      </c>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="V59" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="W59" s="10">
+        <v>0</v>
+      </c>
+      <c r="X59" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="10"/>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>9</v>
       </c>
@@ -23060,8 +23760,11 @@
         <v>7</v>
       </c>
       <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P60" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>9</v>
       </c>
@@ -23071,16 +23774,22 @@
       <c r="D61" s="10" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P61" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>9</v>
       </c>
       <c r="C62">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P62" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>9</v>
       </c>
@@ -23090,8 +23799,11 @@
       <c r="D63" s="10" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P63" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>9</v>
       </c>
@@ -23099,8 +23811,11 @@
         <v>11</v>
       </c>
       <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P64" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>9</v>
       </c>
@@ -23110,8 +23825,11 @@
       <c r="D65" s="10" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P65" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>9</v>
       </c>
@@ -23119,8 +23837,11 @@
         <v>13</v>
       </c>
       <c r="D66" s="10"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P66" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>9</v>
       </c>
@@ -23130,8 +23851,11 @@
       <c r="D67" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P67" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>9</v>
       </c>
@@ -23139,8 +23863,11 @@
         <v>15</v>
       </c>
       <c r="D68" s="10"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P68" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>9</v>
       </c>
@@ -23150,16 +23877,22 @@
       <c r="D69" s="10" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P69" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>9</v>
       </c>
       <c r="C70">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P70" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>9</v>
       </c>
@@ -23169,8 +23902,11 @@
       <c r="D71" s="10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P71" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>9</v>
       </c>
@@ -23178,8 +23914,11 @@
         <v>19</v>
       </c>
       <c r="D72" s="10"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P72" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>9</v>
       </c>
@@ -23189,8 +23928,11 @@
       <c r="D73" s="10" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P73" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>9</v>
       </c>
@@ -23198,8 +23940,11 @@
         <v>21</v>
       </c>
       <c r="D74" s="10"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P74" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>9</v>
       </c>
@@ -23209,8 +23954,11 @@
       <c r="D75" s="10" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P75" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>9</v>
       </c>
@@ -23218,8 +23966,11 @@
         <v>23</v>
       </c>
       <c r="D76" s="10"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P76" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>9</v>
       </c>
@@ -23227,16 +23978,22 @@
         <v>24</v>
       </c>
       <c r="D77" s="10"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P77" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>9</v>
       </c>
       <c r="C78">
         <v>25</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P78" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>9</v>
       </c>
@@ -23246,8 +24003,11 @@
       <c r="D79" s="10" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P79" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>9</v>
       </c>
@@ -23255,8 +24015,11 @@
         <v>27</v>
       </c>
       <c r="D80" s="10"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P80" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>9</v>
       </c>
@@ -23264,8 +24027,11 @@
         <v>28</v>
       </c>
       <c r="D81" s="10"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P81" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>9</v>
       </c>
@@ -23273,8 +24039,11 @@
         <v>29</v>
       </c>
       <c r="D82" s="10"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P82" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>9</v>
       </c>
@@ -23282,8 +24051,11 @@
         <v>30</v>
       </c>
       <c r="D83" s="10"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P83" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>9</v>
       </c>
@@ -23291,8 +24063,11 @@
         <v>31</v>
       </c>
       <c r="D84" s="10"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P84" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>9</v>
       </c>
@@ -23300,6 +24075,159 @@
         <v>32</v>
       </c>
       <c r="D85" s="10"/>
+      <c r="P85" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P89" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P90" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P91" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P94" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P95" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P96" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P100" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P102" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P103" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P104" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P105" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P106" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P107" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P108" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P109" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P110" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P111" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P112" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P113" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P114" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P115" s="10">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mapping/mapping_TB2021July_v1.xlsx
+++ b/mapping/mapping_TB2021July_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khwang/scratch/TB2023July/preparation/dev_230622/TB2023/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051377B8-894E-9944-A00A-078FBF1ECD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F06F2A6-4263-D642-8759-C0E922A95027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23080" yWindow="500" windowWidth="45720" windowHeight="28300" xr2:uid="{9904E546-8807-0449-B43D-5949530D5B54}"/>
+    <workbookView xWindow="23080" yWindow="500" windowWidth="45720" windowHeight="28300" activeTab="1" xr2:uid="{9904E546-8807-0449-B43D-5949530D5B54}"/>
   </bookViews>
   <sheets>
     <sheet name="dynamic" sheetId="1" r:id="rId1"/>
@@ -1007,9 +1007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FA2B49-E75F-9B4E-BCDE-F5B7F2A15CFB}">
   <dimension ref="A1:Y289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R235" sqref="R235"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10083,8 +10083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3F259E-EF3B-4E40-949C-0C8D5E45A455}">
   <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14608,7 +14608,7 @@
         <v>12</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -14700,7 +14700,7 @@
         <v>12</v>
       </c>
       <c r="D201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -14746,7 +14746,7 @@
         <v>11</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -14792,7 +14792,7 @@
         <v>10</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -14838,7 +14838,7 @@
         <v>10</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -14884,7 +14884,7 @@
         <v>11</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -14930,7 +14930,7 @@
         <v>11</v>
       </c>
       <c r="D211">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -15022,7 +15022,7 @@
         <v>11</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -15344,7 +15344,7 @@
         <v>12</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -15436,7 +15436,7 @@
         <v>12</v>
       </c>
       <c r="D233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -15482,7 +15482,7 @@
         <v>11</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -15528,7 +15528,7 @@
         <v>10</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -15574,7 +15574,7 @@
         <v>10</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -15620,7 +15620,7 @@
         <v>11</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -15666,7 +15666,7 @@
         <v>11</v>
       </c>
       <c r="D243">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -15758,7 +15758,7 @@
         <v>11</v>
       </c>
       <c r="D247">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E247">
         <v>1</v>

--- a/mapping/mapping_TB2021July_v1.xlsx
+++ b/mapping/mapping_TB2021July_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khwang/scratch/TB2023July/preparation/dev_230622/TB2023/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F06F2A6-4263-D642-8759-C0E922A95027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE262DF-0C00-6B40-B183-0C382B51F29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23080" yWindow="500" windowWidth="45720" windowHeight="28300" activeTab="1" xr2:uid="{9904E546-8807-0449-B43D-5949530D5B54}"/>
+    <workbookView xWindow="23080" yWindow="500" windowWidth="45720" windowHeight="28300" xr2:uid="{9904E546-8807-0449-B43D-5949530D5B54}"/>
   </bookViews>
   <sheets>
     <sheet name="dynamic" sheetId="1" r:id="rId1"/>
@@ -1007,9 +1007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FA2B49-E75F-9B4E-BCDE-F5B7F2A15CFB}">
   <dimension ref="A1:Y289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W233" sqref="W233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10083,8 +10083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3F259E-EF3B-4E40-949C-0C8D5E45A455}">
   <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="B247" sqref="B247:B248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/mapping/mapping_TB2021July_v1.xlsx
+++ b/mapping/mapping_TB2021July_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khwang/scratch/TB2023July/preparation/dev_230622/TB2023/mapping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khwang/scratch/TB2023July/preparation/dev_230628/TB2023/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE262DF-0C00-6B40-B183-0C382B51F29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1850379D-B36C-E24F-A1AA-407D14B06FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23080" yWindow="500" windowWidth="45720" windowHeight="28300" xr2:uid="{9904E546-8807-0449-B43D-5949530D5B54}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{9904E546-8807-0449-B43D-5949530D5B54}"/>
   </bookViews>
   <sheets>
     <sheet name="dynamic" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="MCP&amp;SIPM" sheetId="4" r:id="rId3"/>
     <sheet name="case" sheetId="2" r:id="rId4"/>
     <sheet name="generic" sheetId="5" r:id="rId5"/>
+    <sheet name="Aux" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="173">
   <si>
     <t>MID</t>
   </si>
@@ -542,12 +543,30 @@
   <si>
     <t>mid</t>
   </si>
+  <si>
+    <t>Aux</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>nCannel</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -568,6 +587,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -670,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -691,6 +717,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,9 +1034,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FA2B49-E75F-9B4E-BCDE-F5B7F2A15CFB}">
   <dimension ref="A1:Y289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W233" sqref="W233"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9369,10 +9396,10 @@
         <v>2</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -9553,10 +9580,10 @@
         <v>10</v>
       </c>
       <c r="C267">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -10083,8 +10110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3F259E-EF3B-4E40-949C-0C8D5E45A455}">
   <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="B247" sqref="B247:B248"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16031,10 +16058,10 @@
         <v>2</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -16215,10 +16242,10 @@
         <v>10</v>
       </c>
       <c r="C267">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -22414,8 +22441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC2B2D4-17CC-374D-879B-0E44BE06E68A}">
   <dimension ref="B3:AB115"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52:P115"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24232,4 +24259,115 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF455B5-8885-4C4E-A014-FA339AED39A6}">
+  <dimension ref="D12:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D12" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="20">
+        <v>12</v>
+      </c>
+      <c r="G13" s="20">
+        <v>2</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20">
+        <v>4</v>
+      </c>
+      <c r="J13" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="20">
+        <v>12</v>
+      </c>
+      <c r="G14" s="20">
+        <v>10</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20">
+        <v>4</v>
+      </c>
+      <c r="J14" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="20">
+        <v>6</v>
+      </c>
+      <c r="J17" s="20">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mapping/mapping_TB2021July_v1.xlsx
+++ b/mapping/mapping_TB2021July_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khwang/scratch/TB2023July/preparation/dev_230628/TB2023/mapping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khwang/scratch/TB2023July/preparation/dev_230703/TB2023/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1850379D-B36C-E24F-A1AA-407D14B06FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15052BB-E1F0-2A4B-BF2F-AF22FED13C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{9904E546-8807-0449-B43D-5949530D5B54}"/>
   </bookViews>
@@ -1035,8 +1035,8 @@
   <dimension ref="A1:Y289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G1048576"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E278" sqref="E278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9534,10 +9534,10 @@
         <v>8</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -9718,10 +9718,10 @@
         <v>16</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         <v>26</v>
       </c>
       <c r="C283">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D283">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -10110,8 +10110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3F259E-EF3B-4E40-949C-0C8D5E45A455}">
   <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="R297" sqref="R297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16196,10 +16196,10 @@
         <v>8</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -16380,10 +16380,10 @@
         <v>16</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -16610,10 +16610,10 @@
         <v>26</v>
       </c>
       <c r="C283">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D283">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E283">
         <v>0</v>

--- a/mapping/mapping_TB2021July_v1.xlsx
+++ b/mapping/mapping_TB2021July_v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khwang/scratch/TB2023July/preparation/dev_230703/TB2023/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15052BB-E1F0-2A4B-BF2F-AF22FED13C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7AA77A-906D-774C-B38A-51158A6B9858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{9904E546-8807-0449-B43D-5949530D5B54}"/>
   </bookViews>
@@ -10111,7 +10111,7 @@
   <dimension ref="A1:G289"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="R297" sqref="R297"/>
+      <selection activeCell="G289" sqref="A1:G289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16426,10 +16426,10 @@
         <v>18</v>
       </c>
       <c r="C275">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D275">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -16564,10 +16564,10 @@
         <v>24</v>
       </c>
       <c r="C281">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D281">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E281">
         <v>0</v>

--- a/mapping/mapping_TB2021July_v1.xlsx
+++ b/mapping/mapping_TB2021July_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khwang/scratch/TB2023July/preparation/dev_230703/TB2023/mapping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khwang/Library/Caches/com.binarynights.ForkLift-3/FileCache/5ED5FD0B-F080-4877-B269-FCA1365913D7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7AA77A-906D-774C-B38A-51158A6B9858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C85F0F8-672A-774F-8E65-81C3527FBB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{9904E546-8807-0449-B43D-5949530D5B54}"/>
   </bookViews>
@@ -1035,8 +1035,8 @@
   <dimension ref="A1:Y289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E278" sqref="E278"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G129" sqref="A98:G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3534,7 +3534,7 @@
         <v>13</v>
       </c>
       <c r="D99">
-        <f>VLOOKUP(B99, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
+        <f>VLOOKUP(B99, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
         <v>49</v>
       </c>
       <c r="E99">
@@ -3560,7 +3560,7 @@
         <v>13</v>
       </c>
       <c r="D100">
-        <f>VLOOKUP(B100, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
+        <f>VLOOKUP(B100, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
         <v>38</v>
       </c>
       <c r="E100">
@@ -3586,7 +3586,7 @@
         <v>13</v>
       </c>
       <c r="D101">
-        <f>VLOOKUP(B101, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
+        <f>VLOOKUP(B101, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
         <v>39</v>
       </c>
       <c r="E101">
@@ -3612,7 +3612,7 @@
         <v>13</v>
       </c>
       <c r="D102">
-        <f>VLOOKUP(B102, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
+        <f>VLOOKUP(B102, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
         <v>33</v>
       </c>
       <c r="E102">
@@ -3638,7 +3638,7 @@
         <v>13</v>
       </c>
       <c r="D103">
-        <f>VLOOKUP(B103, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
+        <f>VLOOKUP(B103, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
         <v>34</v>
       </c>
       <c r="E103">
@@ -3664,7 +3664,7 @@
         <v>13</v>
       </c>
       <c r="D104">
-        <f>VLOOKUP(B104, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
+        <f>VLOOKUP(B104, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
         <v>28</v>
       </c>
       <c r="E104">
@@ -3690,7 +3690,7 @@
         <v>13</v>
       </c>
       <c r="D105">
-        <f>VLOOKUP(B105, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
+        <f>VLOOKUP(B105, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
         <v>29</v>
       </c>
       <c r="E105">
@@ -3739,8 +3739,8 @@
         <v>13</v>
       </c>
       <c r="D107">
-        <f>VLOOKUP(B107, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
-        <v>19</v>
+        <f>VLOOKUP(B107, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="G107">
         <f>VLOOKUP($D107, case!$C$25:$E$74, 3, FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -3765,8 +3765,8 @@
         <v>13</v>
       </c>
       <c r="D108">
-        <f>VLOOKUP(B108, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
-        <v>13</v>
+        <f>VLOOKUP(B108, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
+        <v>15</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="G108">
         <f>VLOOKUP($D108, case!$C$25:$E$74, 3, FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -3791,19 +3791,19 @@
         <v>13</v>
       </c>
       <c r="D109">
-        <f>VLOOKUP(B109, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
-        <v>14</v>
+        <f>VLOOKUP(B109, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
+        <v>20</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109">
         <f>VLOOKUP($D109, case!$C$25:$E$74, 2, FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G109">
         <f>VLOOKUP($D109, case!$C$25:$E$74, 3, FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -3817,8 +3817,8 @@
         <v>13</v>
       </c>
       <c r="D110">
-        <f>VLOOKUP(B110, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
-        <v>8</v>
+        <f>VLOOKUP(B110, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
+        <v>10</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="G110">
         <f>VLOOKUP($D110, case!$C$25:$E$74, 3, FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -3840,22 +3840,19 @@
         <v>14</v>
       </c>
       <c r="C111">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <f>VLOOKUP(B111, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <f>VLOOKUP($D111, case!$C$25:$E$74, 2, FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <f>VLOOKUP($D111, case!$C$25:$E$74, 3, FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -3869,8 +3866,8 @@
         <v>13</v>
       </c>
       <c r="D112">
-        <f>VLOOKUP(B112, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
-        <v>3</v>
+        <f>VLOOKUP(B112, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
+        <v>5</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -3881,7 +3878,7 @@
       </c>
       <c r="G112">
         <f>VLOOKUP($D112, case!$C$25:$E$74, 3, FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -3892,22 +3889,19 @@
         <v>16</v>
       </c>
       <c r="C113">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <f>VLOOKUP(B113, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <f>VLOOKUP($D113, case!$C$25:$E$74, 2, FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <f>VLOOKUP($D113, case!$C$25:$E$74, 3, FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -3944,7 +3938,7 @@
         <v>13</v>
       </c>
       <c r="D115">
-        <f>VLOOKUP(B115, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
+        <f>VLOOKUP(B115, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
         <v>48</v>
       </c>
       <c r="E115">
@@ -3970,7 +3964,7 @@
         <v>13</v>
       </c>
       <c r="D116">
-        <f>VLOOKUP(B116, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
+        <f>VLOOKUP(B116, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
         <v>40</v>
       </c>
       <c r="E116">
@@ -3996,7 +3990,7 @@
         <v>13</v>
       </c>
       <c r="D117">
-        <f>VLOOKUP(B117, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
+        <f>VLOOKUP(B117, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
         <v>50</v>
       </c>
       <c r="E117">
@@ -4022,7 +4016,7 @@
         <v>13</v>
       </c>
       <c r="D118">
-        <f>VLOOKUP(B118, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
+        <f>VLOOKUP(B118, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
         <v>35</v>
       </c>
       <c r="E118">
@@ -4071,7 +4065,7 @@
         <v>13</v>
       </c>
       <c r="D120">
-        <f>VLOOKUP(B120, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
+        <f>VLOOKUP(B120, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
         <v>30</v>
       </c>
       <c r="E120">
@@ -4143,8 +4137,8 @@
         <v>13</v>
       </c>
       <c r="D123">
-        <f>VLOOKUP(B123, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
-        <v>18</v>
+        <f>VLOOKUP(B123, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
+        <v>19</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -4155,7 +4149,7 @@
       </c>
       <c r="G123">
         <f>VLOOKUP($D123, case!$C$25:$E$74, 3, FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -4169,8 +4163,8 @@
         <v>13</v>
       </c>
       <c r="D124">
-        <f>VLOOKUP(B124, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
-        <v>15</v>
+        <f>VLOOKUP(B124, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
+        <v>13</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -4181,7 +4175,7 @@
       </c>
       <c r="G124">
         <f>VLOOKUP($D124, case!$C$25:$E$74, 3, FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -4195,19 +4189,19 @@
         <v>13</v>
       </c>
       <c r="D125">
-        <f>VLOOKUP(B125, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(B125, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
+        <v>14</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="F125">
         <f>VLOOKUP($D125, case!$C$25:$E$74, 2, FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G125">
         <f>VLOOKUP($D125, case!$C$25:$E$74, 3, FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -4221,8 +4215,8 @@
         <v>13</v>
       </c>
       <c r="D126">
-        <f>VLOOKUP(B126, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
-        <v>10</v>
+        <f>VLOOKUP(B126, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
+        <v>8</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -4233,7 +4227,7 @@
       </c>
       <c r="G126">
         <f>VLOOKUP($D126, case!$C$25:$E$74, 3, FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -4244,19 +4238,22 @@
         <v>30</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <f>VLOOKUP(B127, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
+        <v>9</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <f>VLOOKUP($D127, case!$C$25:$E$74, 2, FALSE)</f>
+        <v>2</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <f>VLOOKUP($D127, case!$C$25:$E$74, 3, FALSE)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -4270,8 +4267,8 @@
         <v>13</v>
       </c>
       <c r="D128">
-        <f>VLOOKUP(B128, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(B128, 'MCP&amp;SIPM'!$B$81:$D$103, 3, FALSE)</f>
+        <v>3</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -4282,7 +4279,7 @@
       </c>
       <c r="G128">
         <f>VLOOKUP($D128, case!$C$25:$E$74, 3, FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -4293,19 +4290,22 @@
         <v>32</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <f>VLOOKUP(B129, 'MCP&amp;SIPM'!$B$81:$D$104, 3, FALSE)</f>
+        <v>4</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <f>VLOOKUP($D129, case!$C$25:$E$74, 2, FALSE)</f>
+        <v>1</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <f>VLOOKUP($D129, case!$C$25:$E$74, 3, FALSE)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -4319,18 +4319,15 @@
         <v>14</v>
       </c>
       <c r="D130">
-        <f>VLOOKUP(B130, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>1</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
       <c r="F130">
-        <f>VLOOKUP($D130, case!$D$148:$F$179, 2, FALSE)</f>
         <v>8</v>
       </c>
       <c r="G130">
-        <f>VLOOKUP($D130, case!$D$148:$F$179, 3, FALSE)</f>
         <v>7</v>
       </c>
     </row>
@@ -4345,18 +4342,15 @@
         <v>14</v>
       </c>
       <c r="D131">
-        <f>VLOOKUP(B131, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>2</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
       <c r="F131">
-        <f>VLOOKUP($D131, case!$D$148:$F$179, 2, FALSE)</f>
         <v>7</v>
       </c>
       <c r="G131">
-        <f>VLOOKUP($D131, case!$D$148:$F$179, 3, FALSE)</f>
         <v>8</v>
       </c>
     </row>
@@ -4371,18 +4365,15 @@
         <v>14</v>
       </c>
       <c r="D132">
-        <f>VLOOKUP(B132, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>3</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
       <c r="F132">
-        <f>VLOOKUP($D132, case!$D$148:$F$179, 2, FALSE)</f>
         <v>6</v>
       </c>
       <c r="G132">
-        <f>VLOOKUP($D132, case!$D$148:$F$179, 3, FALSE)</f>
         <v>7</v>
       </c>
     </row>
@@ -4397,18 +4388,15 @@
         <v>14</v>
       </c>
       <c r="D133">
-        <f>VLOOKUP(B133, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>4</v>
       </c>
       <c r="E133">
         <v>1</v>
       </c>
       <c r="F133">
-        <f>VLOOKUP($D133, case!$D$148:$F$179, 2, FALSE)</f>
         <v>5</v>
       </c>
       <c r="G133">
-        <f>VLOOKUP($D133, case!$D$148:$F$179, 3, FALSE)</f>
         <v>8</v>
       </c>
     </row>
@@ -4423,18 +4411,15 @@
         <v>14</v>
       </c>
       <c r="D134">
-        <f>VLOOKUP(B134, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>5</v>
       </c>
       <c r="E134">
         <v>1</v>
       </c>
       <c r="F134">
-        <f>VLOOKUP($D134, case!$D$148:$F$179, 2, FALSE)</f>
         <v>4</v>
       </c>
       <c r="G134">
-        <f>VLOOKUP($D134, case!$D$148:$F$179, 3, FALSE)</f>
         <v>7</v>
       </c>
     </row>
@@ -4449,18 +4434,15 @@
         <v>14</v>
       </c>
       <c r="D135">
-        <f>VLOOKUP(B135, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>6</v>
       </c>
       <c r="E135">
         <v>1</v>
       </c>
       <c r="F135">
-        <f>VLOOKUP($D135, case!$D$148:$F$179, 2, FALSE)</f>
         <v>3</v>
       </c>
       <c r="G135">
-        <f>VLOOKUP($D135, case!$D$148:$F$179, 3, FALSE)</f>
         <v>8</v>
       </c>
     </row>
@@ -4475,18 +4457,15 @@
         <v>14</v>
       </c>
       <c r="D136">
-        <f>VLOOKUP(B136, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>7</v>
       </c>
       <c r="E136">
         <v>1</v>
       </c>
       <c r="F136">
-        <f>VLOOKUP($D136, case!$D$148:$F$179, 2, FALSE)</f>
         <v>2</v>
       </c>
       <c r="G136">
-        <f>VLOOKUP($D136, case!$D$148:$F$179, 3, FALSE)</f>
         <v>7</v>
       </c>
     </row>
@@ -4501,18 +4480,15 @@
         <v>14</v>
       </c>
       <c r="D137">
-        <f>VLOOKUP(B137, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>8</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137">
-        <f>VLOOKUP($D137, case!$D$148:$F$179, 2, FALSE)</f>
         <v>1</v>
       </c>
       <c r="G137">
-        <f>VLOOKUP($D137, case!$D$148:$F$179, 3, FALSE)</f>
         <v>8</v>
       </c>
     </row>
@@ -4527,18 +4503,15 @@
         <v>14</v>
       </c>
       <c r="D138">
-        <f>VLOOKUP(B138, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>9</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138">
-        <f>VLOOKUP($D138, case!$D$148:$F$179, 2, FALSE)</f>
         <v>8</v>
       </c>
       <c r="G138">
-        <f>VLOOKUP($D138, case!$D$148:$F$179, 3, FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -4553,18 +4526,15 @@
         <v>14</v>
       </c>
       <c r="D139">
-        <f>VLOOKUP(B139, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>10</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139">
-        <f>VLOOKUP($D139, case!$D$148:$F$179, 2, FALSE)</f>
         <v>7</v>
       </c>
       <c r="G139">
-        <f>VLOOKUP($D139, case!$D$148:$F$179, 3, FALSE)</f>
         <v>6</v>
       </c>
     </row>
@@ -4579,18 +4549,15 @@
         <v>14</v>
       </c>
       <c r="D140">
-        <f>VLOOKUP(B140, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>11</v>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
       <c r="F140">
-        <f>VLOOKUP($D140, case!$D$148:$F$179, 2, FALSE)</f>
         <v>6</v>
       </c>
       <c r="G140">
-        <f>VLOOKUP($D140, case!$D$148:$F$179, 3, FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -4605,18 +4572,15 @@
         <v>14</v>
       </c>
       <c r="D141">
-        <f>VLOOKUP(B141, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>12</v>
       </c>
       <c r="E141">
         <v>1</v>
       </c>
       <c r="F141">
-        <f>VLOOKUP($D141, case!$D$148:$F$179, 2, FALSE)</f>
         <v>5</v>
       </c>
       <c r="G141">
-        <f>VLOOKUP($D141, case!$D$148:$F$179, 3, FALSE)</f>
         <v>6</v>
       </c>
     </row>
@@ -4631,18 +4595,15 @@
         <v>14</v>
       </c>
       <c r="D142">
-        <f>VLOOKUP(B142, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>13</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
       <c r="F142">
-        <f>VLOOKUP($D142, case!$D$148:$F$179, 2, FALSE)</f>
         <v>4</v>
       </c>
       <c r="G142">
-        <f>VLOOKUP($D142, case!$D$148:$F$179, 3, FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -4657,18 +4618,15 @@
         <v>14</v>
       </c>
       <c r="D143">
-        <f>VLOOKUP(B143, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>14</v>
       </c>
       <c r="E143">
         <v>1</v>
       </c>
       <c r="F143">
-        <f>VLOOKUP($D143, case!$D$148:$F$179, 2, FALSE)</f>
         <v>3</v>
       </c>
       <c r="G143">
-        <f>VLOOKUP($D143, case!$D$148:$F$179, 3, FALSE)</f>
         <v>6</v>
       </c>
     </row>
@@ -4683,18 +4641,15 @@
         <v>14</v>
       </c>
       <c r="D144">
-        <f>VLOOKUP(B144, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>15</v>
       </c>
       <c r="E144">
         <v>1</v>
       </c>
       <c r="F144">
-        <f>VLOOKUP($D144, case!$D$148:$F$179, 2, FALSE)</f>
         <v>2</v>
       </c>
       <c r="G144">
-        <f>VLOOKUP($D144, case!$D$148:$F$179, 3, FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -4709,18 +4664,15 @@
         <v>14</v>
       </c>
       <c r="D145">
-        <f>VLOOKUP(B145, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>16</v>
       </c>
       <c r="E145">
         <v>1</v>
       </c>
       <c r="F145">
-        <f>VLOOKUP($D145, case!$D$148:$F$179, 2, FALSE)</f>
         <v>1</v>
       </c>
       <c r="G145">
-        <f>VLOOKUP($D145, case!$D$148:$F$179, 3, FALSE)</f>
         <v>6</v>
       </c>
     </row>
@@ -4735,18 +4687,15 @@
         <v>14</v>
       </c>
       <c r="D146">
-        <f>VLOOKUP(B146, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>17</v>
       </c>
       <c r="E146">
         <v>1</v>
       </c>
       <c r="F146">
-        <f>VLOOKUP($D146, case!$D$148:$F$179, 2, FALSE)</f>
         <v>8</v>
       </c>
       <c r="G146">
-        <f>VLOOKUP($D146, case!$D$148:$F$179, 3, FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -4761,18 +4710,15 @@
         <v>14</v>
       </c>
       <c r="D147">
-        <f>VLOOKUP(B147, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>18</v>
       </c>
       <c r="E147">
         <v>1</v>
       </c>
       <c r="F147">
-        <f>VLOOKUP($D147, case!$D$148:$F$179, 2, FALSE)</f>
         <v>7</v>
       </c>
       <c r="G147">
-        <f>VLOOKUP($D147, case!$D$148:$F$179, 3, FALSE)</f>
         <v>4</v>
       </c>
     </row>
@@ -4787,18 +4733,15 @@
         <v>14</v>
       </c>
       <c r="D148">
-        <f>VLOOKUP(B148, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>19</v>
       </c>
       <c r="E148">
         <v>1</v>
       </c>
       <c r="F148">
-        <f>VLOOKUP($D148, case!$D$148:$F$179, 2, FALSE)</f>
         <v>6</v>
       </c>
       <c r="G148">
-        <f>VLOOKUP($D148, case!$D$148:$F$179, 3, FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -4813,18 +4756,15 @@
         <v>14</v>
       </c>
       <c r="D149">
-        <f>VLOOKUP(B149, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>20</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
       <c r="F149">
-        <f>VLOOKUP($D149, case!$D$148:$F$179, 2, FALSE)</f>
         <v>5</v>
       </c>
       <c r="G149">
-        <f>VLOOKUP($D149, case!$D$148:$F$179, 3, FALSE)</f>
         <v>4</v>
       </c>
     </row>
@@ -4839,18 +4779,15 @@
         <v>14</v>
       </c>
       <c r="D150">
-        <f>VLOOKUP(B150, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>21</v>
       </c>
       <c r="E150">
         <v>1</v>
       </c>
       <c r="F150">
-        <f>VLOOKUP($D150, case!$D$148:$F$179, 2, FALSE)</f>
         <v>4</v>
       </c>
       <c r="G150">
-        <f>VLOOKUP($D150, case!$D$148:$F$179, 3, FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -4865,18 +4802,15 @@
         <v>14</v>
       </c>
       <c r="D151">
-        <f>VLOOKUP(B151, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>22</v>
       </c>
       <c r="E151">
         <v>1</v>
       </c>
       <c r="F151">
-        <f>VLOOKUP($D151, case!$D$148:$F$179, 2, FALSE)</f>
         <v>3</v>
       </c>
       <c r="G151">
-        <f>VLOOKUP($D151, case!$D$148:$F$179, 3, FALSE)</f>
         <v>4</v>
       </c>
     </row>
@@ -4891,18 +4825,15 @@
         <v>14</v>
       </c>
       <c r="D152">
-        <f>VLOOKUP(B152, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>23</v>
       </c>
       <c r="E152">
         <v>1</v>
       </c>
       <c r="F152">
-        <f>VLOOKUP($D152, case!$D$148:$F$179, 2, FALSE)</f>
         <v>2</v>
       </c>
       <c r="G152">
-        <f>VLOOKUP($D152, case!$D$148:$F$179, 3, FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -4917,18 +4848,15 @@
         <v>14</v>
       </c>
       <c r="D153">
-        <f>VLOOKUP(B153, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>24</v>
       </c>
       <c r="E153">
         <v>1</v>
       </c>
       <c r="F153">
-        <f>VLOOKUP($D153, case!$D$148:$F$179, 2, FALSE)</f>
         <v>1</v>
       </c>
       <c r="G153">
-        <f>VLOOKUP($D153, case!$D$148:$F$179, 3, FALSE)</f>
         <v>4</v>
       </c>
     </row>
@@ -4943,18 +4871,15 @@
         <v>14</v>
       </c>
       <c r="D154">
-        <f>VLOOKUP(B154, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>25</v>
       </c>
       <c r="E154">
         <v>1</v>
       </c>
       <c r="F154">
-        <f>VLOOKUP($D154, case!$D$148:$F$179, 2, FALSE)</f>
         <v>8</v>
       </c>
       <c r="G154">
-        <f>VLOOKUP($D154, case!$D$148:$F$179, 3, FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -4969,18 +4894,15 @@
         <v>14</v>
       </c>
       <c r="D155">
-        <f>VLOOKUP(B155, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>26</v>
       </c>
       <c r="E155">
         <v>1</v>
       </c>
       <c r="F155">
-        <f>VLOOKUP($D155, case!$D$148:$F$179, 2, FALSE)</f>
         <v>7</v>
       </c>
       <c r="G155">
-        <f>VLOOKUP($D155, case!$D$148:$F$179, 3, FALSE)</f>
         <v>2</v>
       </c>
     </row>
@@ -4995,18 +4917,15 @@
         <v>14</v>
       </c>
       <c r="D156">
-        <f>VLOOKUP(B156, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>27</v>
       </c>
       <c r="E156">
         <v>1</v>
       </c>
       <c r="F156">
-        <f>VLOOKUP($D156, case!$D$148:$F$179, 2, FALSE)</f>
         <v>6</v>
       </c>
       <c r="G156">
-        <f>VLOOKUP($D156, case!$D$148:$F$179, 3, FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -5021,18 +4940,15 @@
         <v>14</v>
       </c>
       <c r="D157">
-        <f>VLOOKUP(B157, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>28</v>
       </c>
       <c r="E157">
         <v>1</v>
       </c>
       <c r="F157">
-        <f>VLOOKUP($D157, case!$D$148:$F$179, 2, FALSE)</f>
         <v>5</v>
       </c>
       <c r="G157">
-        <f>VLOOKUP($D157, case!$D$148:$F$179, 3, FALSE)</f>
         <v>2</v>
       </c>
     </row>
@@ -5047,18 +4963,15 @@
         <v>14</v>
       </c>
       <c r="D158">
-        <f>VLOOKUP(B158, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>29</v>
       </c>
       <c r="E158">
         <v>1</v>
       </c>
       <c r="F158">
-        <f>VLOOKUP($D158, case!$D$148:$F$179, 2, FALSE)</f>
         <v>4</v>
       </c>
       <c r="G158">
-        <f>VLOOKUP($D158, case!$D$148:$F$179, 3, FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -5073,18 +4986,15 @@
         <v>14</v>
       </c>
       <c r="D159">
-        <f>VLOOKUP(B159, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>30</v>
       </c>
       <c r="E159">
         <v>1</v>
       </c>
       <c r="F159">
-        <f>VLOOKUP($D159, case!$D$148:$F$179, 2, FALSE)</f>
         <v>3</v>
       </c>
       <c r="G159">
-        <f>VLOOKUP($D159, case!$D$148:$F$179, 3, FALSE)</f>
         <v>2</v>
       </c>
     </row>
@@ -5099,18 +5009,15 @@
         <v>14</v>
       </c>
       <c r="D160">
-        <f>VLOOKUP(B160, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>31</v>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
       <c r="F160">
-        <f>VLOOKUP($D160, case!$D$148:$F$179, 2, FALSE)</f>
         <v>2</v>
       </c>
       <c r="G160">
-        <f>VLOOKUP($D160, case!$D$148:$F$179, 3, FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -5125,18 +5032,15 @@
         <v>14</v>
       </c>
       <c r="D161">
-        <f>VLOOKUP(B161, 'MCP&amp;SIPM'!$B$106:$D$137, 3, FALSE)</f>
         <v>32</v>
       </c>
       <c r="E161">
         <v>1</v>
       </c>
       <c r="F161">
-        <f>VLOOKUP($D161, case!$D$148:$F$179, 2, FALSE)</f>
         <v>1</v>
       </c>
       <c r="G161">
-        <f>VLOOKUP($D161, case!$D$148:$F$179, 3, FALSE)</f>
         <v>2</v>
       </c>
     </row>
@@ -5151,18 +5055,15 @@
         <v>14</v>
       </c>
       <c r="D162">
-        <f>VLOOKUP(B162, 'MCP&amp;SIPM'!$B$139:$D170, 3, FALSE)</f>
         <v>1</v>
       </c>
       <c r="E162">
         <v>0</v>
       </c>
       <c r="F162">
-        <f>VLOOKUP($D162,case!$D$180:$F$211, 2, FALSE)</f>
         <v>8</v>
       </c>
       <c r="G162">
-        <f>VLOOKUP($D162,case!$D$180:$F$211, 3, FALSE)</f>
         <v>8</v>
       </c>
     </row>
@@ -5177,18 +5078,15 @@
         <v>14</v>
       </c>
       <c r="D163">
-        <f>VLOOKUP(B163, 'MCP&amp;SIPM'!$B$139:$D171, 3, FALSE)</f>
         <v>2</v>
       </c>
       <c r="E163">
         <v>0</v>
       </c>
       <c r="F163">
-        <f>VLOOKUP($D163,case!$D$180:$F$211, 2, FALSE)</f>
         <v>7</v>
       </c>
       <c r="G163">
-        <f>VLOOKUP($D163,case!$D$180:$F$211, 3, FALSE)</f>
         <v>7</v>
       </c>
     </row>
@@ -5203,18 +5101,15 @@
         <v>14</v>
       </c>
       <c r="D164">
-        <f>VLOOKUP(B164, 'MCP&amp;SIPM'!$B$139:$D172, 3, FALSE)</f>
         <v>3</v>
       </c>
       <c r="E164">
         <v>0</v>
       </c>
       <c r="F164">
-        <f>VLOOKUP($D164,case!$D$180:$F$211, 2, FALSE)</f>
         <v>6</v>
       </c>
       <c r="G164">
-        <f>VLOOKUP($D164,case!$D$180:$F$211, 3, FALSE)</f>
         <v>8</v>
       </c>
     </row>
@@ -5229,18 +5124,15 @@
         <v>14</v>
       </c>
       <c r="D165">
-        <f>VLOOKUP(B165, 'MCP&amp;SIPM'!$B$139:$D173, 3, FALSE)</f>
         <v>4</v>
       </c>
       <c r="E165">
         <v>0</v>
       </c>
       <c r="F165">
-        <f>VLOOKUP($D165,case!$D$180:$F$211, 2, FALSE)</f>
         <v>5</v>
       </c>
       <c r="G165">
-        <f>VLOOKUP($D165,case!$D$180:$F$211, 3, FALSE)</f>
         <v>7</v>
       </c>
     </row>
@@ -5255,18 +5147,15 @@
         <v>14</v>
       </c>
       <c r="D166">
-        <f>VLOOKUP(B166, 'MCP&amp;SIPM'!$B$139:$D174, 3, FALSE)</f>
         <v>5</v>
       </c>
       <c r="E166">
         <v>0</v>
       </c>
       <c r="F166">
-        <f>VLOOKUP($D166,case!$D$180:$F$211, 2, FALSE)</f>
         <v>4</v>
       </c>
       <c r="G166">
-        <f>VLOOKUP($D166,case!$D$180:$F$211, 3, FALSE)</f>
         <v>8</v>
       </c>
     </row>
@@ -5281,18 +5170,15 @@
         <v>14</v>
       </c>
       <c r="D167">
-        <f>VLOOKUP(B167, 'MCP&amp;SIPM'!$B$139:$D175, 3, FALSE)</f>
         <v>6</v>
       </c>
       <c r="E167">
         <v>0</v>
       </c>
       <c r="F167">
-        <f>VLOOKUP($D167,case!$D$180:$F$211, 2, FALSE)</f>
         <v>3</v>
       </c>
       <c r="G167">
-        <f>VLOOKUP($D167,case!$D$180:$F$211, 3, FALSE)</f>
         <v>7</v>
       </c>
     </row>
@@ -5307,18 +5193,15 @@
         <v>14</v>
       </c>
       <c r="D168">
-        <f>VLOOKUP(B168, 'MCP&amp;SIPM'!$B$139:$D176, 3, FALSE)</f>
         <v>7</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
       <c r="F168">
-        <f>VLOOKUP($D168,case!$D$180:$F$211, 2, FALSE)</f>
         <v>2</v>
       </c>
       <c r="G168">
-        <f>VLOOKUP($D168,case!$D$180:$F$211, 3, FALSE)</f>
         <v>8</v>
       </c>
     </row>
@@ -5333,18 +5216,15 @@
         <v>14</v>
       </c>
       <c r="D169">
-        <f>VLOOKUP(B169, 'MCP&amp;SIPM'!$B$139:$D177, 3, FALSE)</f>
         <v>8</v>
       </c>
       <c r="E169">
         <v>0</v>
       </c>
       <c r="F169">
-        <f>VLOOKUP($D169,case!$D$180:$F$211, 2, FALSE)</f>
         <v>1</v>
       </c>
       <c r="G169">
-        <f>VLOOKUP($D169,case!$D$180:$F$211, 3, FALSE)</f>
         <v>7</v>
       </c>
     </row>
@@ -5359,18 +5239,15 @@
         <v>14</v>
       </c>
       <c r="D170">
-        <f>VLOOKUP(B170, 'MCP&amp;SIPM'!$B$139:$D178, 3, FALSE)</f>
         <v>9</v>
       </c>
       <c r="E170">
         <v>0</v>
       </c>
       <c r="F170">
-        <f>VLOOKUP($D170,case!$D$180:$F$211, 2, FALSE)</f>
         <v>8</v>
       </c>
       <c r="G170">
-        <f>VLOOKUP($D170,case!$D$180:$F$211, 3, FALSE)</f>
         <v>6</v>
       </c>
     </row>
@@ -5385,18 +5262,15 @@
         <v>14</v>
       </c>
       <c r="D171">
-        <f>VLOOKUP(B171, 'MCP&amp;SIPM'!$B$139:$D179, 3, FALSE)</f>
         <v>10</v>
       </c>
       <c r="E171">
         <v>0</v>
       </c>
       <c r="F171">
-        <f>VLOOKUP($D171,case!$D$180:$F$211, 2, FALSE)</f>
         <v>7</v>
       </c>
       <c r="G171">
-        <f>VLOOKUP($D171,case!$D$180:$F$211, 3, FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -5411,18 +5285,15 @@
         <v>14</v>
       </c>
       <c r="D172">
-        <f>VLOOKUP(B172, 'MCP&amp;SIPM'!$B$139:$D180, 3, FALSE)</f>
         <v>11</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
       <c r="F172">
-        <f>VLOOKUP($D172,case!$D$180:$F$211, 2, FALSE)</f>
         <v>6</v>
       </c>
       <c r="G172">
-        <f>VLOOKUP($D172,case!$D$180:$F$211, 3, FALSE)</f>
         <v>6</v>
       </c>
     </row>
@@ -5437,18 +5308,15 @@
         <v>14</v>
       </c>
       <c r="D173">
-        <f>VLOOKUP(B173, 'MCP&amp;SIPM'!$B$139:$D181, 3, FALSE)</f>
         <v>12</v>
       </c>
       <c r="E173">
         <v>0</v>
       </c>
       <c r="F173">
-        <f>VLOOKUP($D173,case!$D$180:$F$211, 2, FALSE)</f>
         <v>5</v>
       </c>
       <c r="G173">
-        <f>VLOOKUP($D173,case!$D$180:$F$211, 3, FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -5463,18 +5331,15 @@
         <v>14</v>
       </c>
       <c r="D174">
-        <f>VLOOKUP(B174, 'MCP&amp;SIPM'!$B$139:$D182, 3, FALSE)</f>
         <v>13</v>
       </c>
       <c r="E174">
         <v>0</v>
       </c>
       <c r="F174">
-        <f>VLOOKUP($D174,case!$D$180:$F$211, 2, FALSE)</f>
         <v>4</v>
       </c>
       <c r="G174">
-        <f>VLOOKUP($D174,case!$D$180:$F$211, 3, FALSE)</f>
         <v>6</v>
       </c>
     </row>
@@ -5489,18 +5354,15 @@
         <v>14</v>
       </c>
       <c r="D175">
-        <f>VLOOKUP(B175, 'MCP&amp;SIPM'!$B$139:$D183, 3, FALSE)</f>
         <v>14</v>
       </c>
       <c r="E175">
         <v>0</v>
       </c>
       <c r="F175">
-        <f>VLOOKUP($D175,case!$D$180:$F$211, 2, FALSE)</f>
         <v>3</v>
       </c>
       <c r="G175">
-        <f>VLOOKUP($D175,case!$D$180:$F$211, 3, FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -5515,18 +5377,15 @@
         <v>14</v>
       </c>
       <c r="D176">
-        <f>VLOOKUP(B176, 'MCP&amp;SIPM'!$B$139:$D184, 3, FALSE)</f>
         <v>15</v>
       </c>
       <c r="E176">
         <v>0</v>
       </c>
       <c r="F176">
-        <f>VLOOKUP($D176,case!$D$180:$F$211, 2, FALSE)</f>
         <v>2</v>
       </c>
       <c r="G176">
-        <f>VLOOKUP($D176,case!$D$180:$F$211, 3, FALSE)</f>
         <v>6</v>
       </c>
     </row>
@@ -5541,18 +5400,15 @@
         <v>14</v>
       </c>
       <c r="D177">
-        <f>VLOOKUP(B177, 'MCP&amp;SIPM'!$B$139:$D185, 3, FALSE)</f>
         <v>16</v>
       </c>
       <c r="E177">
         <v>0</v>
       </c>
       <c r="F177">
-        <f>VLOOKUP($D177,case!$D$180:$F$211, 2, FALSE)</f>
         <v>1</v>
       </c>
       <c r="G177">
-        <f>VLOOKUP($D177,case!$D$180:$F$211, 3, FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -5567,18 +5423,15 @@
         <v>14</v>
       </c>
       <c r="D178">
-        <f>VLOOKUP(B178, 'MCP&amp;SIPM'!$B$139:$D186, 3, FALSE)</f>
         <v>17</v>
       </c>
       <c r="E178">
         <v>0</v>
       </c>
       <c r="F178">
-        <f>VLOOKUP($D178,case!$D$180:$F$211, 2, FALSE)</f>
         <v>8</v>
       </c>
       <c r="G178">
-        <f>VLOOKUP($D178,case!$D$180:$F$211, 3, FALSE)</f>
         <v>4</v>
       </c>
     </row>
@@ -5593,18 +5446,15 @@
         <v>14</v>
       </c>
       <c r="D179">
-        <f>VLOOKUP(B179, 'MCP&amp;SIPM'!$B$139:$D187, 3, FALSE)</f>
         <v>18</v>
       </c>
       <c r="E179">
         <v>0</v>
       </c>
       <c r="F179">
-        <f>VLOOKUP($D179,case!$D$180:$F$211, 2, FALSE)</f>
         <v>7</v>
       </c>
       <c r="G179">
-        <f>VLOOKUP($D179,case!$D$180:$F$211, 3, FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5619,18 +5469,15 @@
         <v>14</v>
       </c>
       <c r="D180">
-        <f>VLOOKUP(B180, 'MCP&amp;SIPM'!$B$139:$D188, 3, FALSE)</f>
         <v>19</v>
       </c>
       <c r="E180">
         <v>0</v>
       </c>
       <c r="F180">
-        <f>VLOOKUP($D180,case!$D$180:$F$211, 2, FALSE)</f>
         <v>6</v>
       </c>
       <c r="G180">
-        <f>VLOOKUP($D180,case!$D$180:$F$211, 3, FALSE)</f>
         <v>4</v>
       </c>
     </row>
@@ -5645,18 +5492,15 @@
         <v>14</v>
       </c>
       <c r="D181">
-        <f>VLOOKUP(B181, 'MCP&amp;SIPM'!$B$139:$D189, 3, FALSE)</f>
         <v>20</v>
       </c>
       <c r="E181">
         <v>0</v>
       </c>
       <c r="F181">
-        <f>VLOOKUP($D181,case!$D$180:$F$211, 2, FALSE)</f>
         <v>5</v>
       </c>
       <c r="G181">
-        <f>VLOOKUP($D181,case!$D$180:$F$211, 3, FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5671,18 +5515,15 @@
         <v>14</v>
       </c>
       <c r="D182">
-        <f>VLOOKUP(B182, 'MCP&amp;SIPM'!$B$139:$D190, 3, FALSE)</f>
         <v>21</v>
       </c>
       <c r="E182">
         <v>0</v>
       </c>
       <c r="F182">
-        <f>VLOOKUP($D182,case!$D$180:$F$211, 2, FALSE)</f>
         <v>4</v>
       </c>
       <c r="G182">
-        <f>VLOOKUP($D182,case!$D$180:$F$211, 3, FALSE)</f>
         <v>4</v>
       </c>
     </row>
@@ -5697,18 +5538,15 @@
         <v>14</v>
       </c>
       <c r="D183">
-        <f>VLOOKUP(B183, 'MCP&amp;SIPM'!$B$139:$D191, 3, FALSE)</f>
         <v>22</v>
       </c>
       <c r="E183">
         <v>0</v>
       </c>
       <c r="F183">
-        <f>VLOOKUP($D183,case!$D$180:$F$211, 2, FALSE)</f>
         <v>3</v>
       </c>
       <c r="G183">
-        <f>VLOOKUP($D183,case!$D$180:$F$211, 3, FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5723,18 +5561,15 @@
         <v>14</v>
       </c>
       <c r="D184">
-        <f>VLOOKUP(B184, 'MCP&amp;SIPM'!$B$139:$D192, 3, FALSE)</f>
         <v>23</v>
       </c>
       <c r="E184">
         <v>0</v>
       </c>
       <c r="F184">
-        <f>VLOOKUP($D184,case!$D$180:$F$211, 2, FALSE)</f>
         <v>2</v>
       </c>
       <c r="G184">
-        <f>VLOOKUP($D184,case!$D$180:$F$211, 3, FALSE)</f>
         <v>4</v>
       </c>
     </row>
@@ -5749,18 +5584,15 @@
         <v>14</v>
       </c>
       <c r="D185">
-        <f>VLOOKUP(B185, 'MCP&amp;SIPM'!$B$139:$D193, 3, FALSE)</f>
         <v>24</v>
       </c>
       <c r="E185">
         <v>0</v>
       </c>
       <c r="F185">
-        <f>VLOOKUP($D185,case!$D$180:$F$211, 2, FALSE)</f>
         <v>1</v>
       </c>
       <c r="G185">
-        <f>VLOOKUP($D185,case!$D$180:$F$211, 3, FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5775,18 +5607,15 @@
         <v>14</v>
       </c>
       <c r="D186">
-        <f>VLOOKUP(B186, 'MCP&amp;SIPM'!$B$139:$D194, 3, FALSE)</f>
         <v>25</v>
       </c>
       <c r="E186">
         <v>0</v>
       </c>
       <c r="F186">
-        <f>VLOOKUP($D186,case!$D$180:$F$211, 2, FALSE)</f>
         <v>8</v>
       </c>
       <c r="G186">
-        <f>VLOOKUP($D186,case!$D$180:$F$211, 3, FALSE)</f>
         <v>2</v>
       </c>
     </row>
@@ -5801,18 +5630,15 @@
         <v>14</v>
       </c>
       <c r="D187">
-        <f>VLOOKUP(B187, 'MCP&amp;SIPM'!$B$139:$D195, 3, FALSE)</f>
         <v>26</v>
       </c>
       <c r="E187">
         <v>0</v>
       </c>
       <c r="F187">
-        <f>VLOOKUP($D187,case!$D$180:$F$211, 2, FALSE)</f>
         <v>7</v>
       </c>
       <c r="G187">
-        <f>VLOOKUP($D187,case!$D$180:$F$211, 3, FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -5827,18 +5653,15 @@
         <v>14</v>
       </c>
       <c r="D188">
-        <f>VLOOKUP(B188, 'MCP&amp;SIPM'!$B$139:$D196, 3, FALSE)</f>
         <v>27</v>
       </c>
       <c r="E188">
         <v>0</v>
       </c>
       <c r="F188">
-        <f>VLOOKUP($D188,case!$D$180:$F$211, 2, FALSE)</f>
         <v>6</v>
       </c>
       <c r="G188">
-        <f>VLOOKUP($D188,case!$D$180:$F$211, 3, FALSE)</f>
         <v>2</v>
       </c>
     </row>
@@ -5853,18 +5676,15 @@
         <v>14</v>
       </c>
       <c r="D189">
-        <f>VLOOKUP(B189, 'MCP&amp;SIPM'!$B$139:$D197, 3, FALSE)</f>
         <v>28</v>
       </c>
       <c r="E189">
         <v>0</v>
       </c>
       <c r="F189">
-        <f>VLOOKUP($D189,case!$D$180:$F$211, 2, FALSE)</f>
         <v>5</v>
       </c>
       <c r="G189">
-        <f>VLOOKUP($D189,case!$D$180:$F$211, 3, FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -5879,18 +5699,15 @@
         <v>14</v>
       </c>
       <c r="D190">
-        <f>VLOOKUP(B190, 'MCP&amp;SIPM'!$B$139:$D198, 3, FALSE)</f>
         <v>29</v>
       </c>
       <c r="E190">
         <v>0</v>
       </c>
       <c r="F190">
-        <f>VLOOKUP($D190,case!$D$180:$F$211, 2, FALSE)</f>
         <v>4</v>
       </c>
       <c r="G190">
-        <f>VLOOKUP($D190,case!$D$180:$F$211, 3, FALSE)</f>
         <v>2</v>
       </c>
       <c r="R190" t="s">
@@ -5911,18 +5728,15 @@
         <v>14</v>
       </c>
       <c r="D191">
-        <f>VLOOKUP(B191, 'MCP&amp;SIPM'!$B$139:$D199, 3, FALSE)</f>
         <v>30</v>
       </c>
       <c r="E191">
         <v>0</v>
       </c>
       <c r="F191">
-        <f>VLOOKUP($D191,case!$D$180:$F$211, 2, FALSE)</f>
         <v>3</v>
       </c>
       <c r="G191">
-        <f>VLOOKUP($D191,case!$D$180:$F$211, 3, FALSE)</f>
         <v>1</v>
       </c>
       <c r="R191" t="s">
@@ -5943,18 +5757,15 @@
         <v>14</v>
       </c>
       <c r="D192">
-        <f>VLOOKUP(B192, 'MCP&amp;SIPM'!$B$139:$D200, 3, FALSE)</f>
         <v>31</v>
       </c>
       <c r="E192">
         <v>0</v>
       </c>
       <c r="F192">
-        <f>VLOOKUP($D192,case!$D$180:$F$211, 2, FALSE)</f>
         <v>2</v>
       </c>
       <c r="G192">
-        <f>VLOOKUP($D192,case!$D$180:$F$211, 3, FALSE)</f>
         <v>2</v>
       </c>
       <c r="R192" t="s">
@@ -5975,18 +5786,15 @@
         <v>14</v>
       </c>
       <c r="D193">
-        <f>VLOOKUP(B193, 'MCP&amp;SIPM'!$B$139:$D201, 3, FALSE)</f>
         <v>32</v>
       </c>
       <c r="E193">
         <v>0</v>
       </c>
       <c r="F193">
-        <f>VLOOKUP($D193,case!$D$180:$F$211, 2, FALSE)</f>
         <v>1</v>
       </c>
       <c r="G193">
-        <f>VLOOKUP($D193,case!$D$180:$F$211, 3, FALSE)</f>
         <v>1</v>
       </c>
       <c r="R193" t="s">
@@ -10110,8 +9918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3F259E-EF3B-4E40-949C-0C8D5E45A455}">
   <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="G289" sqref="A1:G289"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12565,7 +12373,7 @@
         <v>13</v>
       </c>
       <c r="D107">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -12574,7 +12382,7 @@
         <v>4</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -12588,7 +12396,7 @@
         <v>13</v>
       </c>
       <c r="D108">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -12597,7 +12405,7 @@
         <v>3</v>
       </c>
       <c r="G108">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -12611,16 +12419,16 @@
         <v>13</v>
       </c>
       <c r="D109">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -12634,7 +12442,7 @@
         <v>13</v>
       </c>
       <c r="D110">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -12643,7 +12451,7 @@
         <v>2</v>
       </c>
       <c r="G110">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -12654,19 +12462,19 @@
         <v>14</v>
       </c>
       <c r="C111">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -12680,7 +12488,7 @@
         <v>13</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -12689,7 +12497,7 @@
         <v>1</v>
       </c>
       <c r="G112">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -12700,19 +12508,19 @@
         <v>16</v>
       </c>
       <c r="C113">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -12933,7 +12741,7 @@
         <v>13</v>
       </c>
       <c r="D123">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -12942,7 +12750,7 @@
         <v>4</v>
       </c>
       <c r="G123">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -12956,7 +12764,7 @@
         <v>13</v>
       </c>
       <c r="D124">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -12965,7 +12773,7 @@
         <v>3</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -12979,16 +12787,16 @@
         <v>13</v>
       </c>
       <c r="D125">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="F125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -13002,7 +12810,7 @@
         <v>13</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -13011,7 +12819,7 @@
         <v>2</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -13022,19 +12830,19 @@
         <v>30</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -13048,7 +12856,7 @@
         <v>13</v>
       </c>
       <c r="D128">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -13057,7 +12865,7 @@
         <v>1</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -13068,19 +12876,19 @@
         <v>32</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -16772,8 +16580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1620C6-ABFD-8749-8052-FB6E739E2A3D}">
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D81" sqref="B81:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17817,7 +17625,7 @@
         <v>43</v>
       </c>
       <c r="D88">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -17829,7 +17637,7 @@
         <v>43</v>
       </c>
       <c r="D89">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -17841,7 +17649,7 @@
         <v>43</v>
       </c>
       <c r="D90">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -17853,163 +17661,163 @@
         <v>43</v>
       </c>
       <c r="D91">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="10"/>
       <c r="B92" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D92">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
       <c r="B93" s="10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="10"/>
       <c r="B94" s="10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="10"/>
       <c r="B95" s="10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D95">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
       <c r="B96" s="10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D96">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
       <c r="B97" s="10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D97">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
       <c r="B98" s="10">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D98">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
       <c r="B99" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D99">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="10"/>
       <c r="B100" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D100">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="10"/>
       <c r="B101" s="10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D101">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
       <c r="B102" s="10">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D102">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D103">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
       <c r="B104" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">

--- a/mapping/mapping_TB2021July_v1.xlsx
+++ b/mapping/mapping_TB2021July_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khwang/Library/Caches/com.binarynights.ForkLift-3/FileCache/5ED5FD0B-F080-4877-B269-FCA1365913D7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C85F0F8-672A-774F-8E65-81C3527FBB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EF0C76-0253-BD43-A83A-DF88CAD01B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{9904E546-8807-0449-B43D-5949530D5B54}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{9904E546-8807-0449-B43D-5949530D5B54}"/>
   </bookViews>
   <sheets>
     <sheet name="dynamic" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="178">
   <si>
     <t>MID</t>
   </si>
@@ -561,6 +561,21 @@
   <si>
     <t>Case</t>
   </si>
+  <si>
+    <t>Coin</t>
+  </si>
+  <si>
+    <t>T1N</t>
+  </si>
+  <si>
+    <t>T2N</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T3N</t>
+  </si>
 </sst>
 </file>
 
@@ -9918,7 +9933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3F259E-EF3B-4E40-949C-0C8D5E45A455}">
   <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+    <sheetView topLeftCell="A93" workbookViewId="0">
       <selection activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
@@ -18611,7 +18626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6155975-9163-6745-86DE-64EA3CD700DC}">
   <dimension ref="B4:T211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E29" sqref="C29:E29"/>
     </sheetView>
   </sheetViews>
@@ -24071,10 +24086,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF455B5-8885-4C4E-A014-FA339AED39A6}">
-  <dimension ref="D12:J17"/>
+  <dimension ref="D12:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24106,10 +24121,10 @@
         <v>169</v>
       </c>
       <c r="F13" s="20">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G13" s="20">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20">
@@ -24125,10 +24140,10 @@
         <v>170</v>
       </c>
       <c r="F14" s="20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G14" s="20">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20">
@@ -24138,40 +24153,125 @@
         <v>2</v>
       </c>
     </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
+      <c r="E16" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="I16" s="20">
+        <v>4</v>
+      </c>
+      <c r="J16" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E17" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="I17" s="20">
+        <v>4</v>
+      </c>
+      <c r="J17" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E18" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>19</v>
+      </c>
+      <c r="I18" s="20">
+        <v>4</v>
+      </c>
+      <c r="J18" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E19" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="I19" s="20">
+        <v>4</v>
+      </c>
+      <c r="J19" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
         <v>116</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>12</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>6</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
         <v>12</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="20">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="20">
         <v>6</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J22" s="20">
         <v>2</v>
       </c>
     </row>
